--- a/prueba26/copia_B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(2).xlsx
+++ b/prueba26/copia_B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(2).xlsx
@@ -6543,9 +6543,10 @@
       <c r="R80" s="3" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
@@ -6586,9 +6587,10 @@
           <t>'==L01=DF--.1++1.050IR2+CW1&amp;EFS/2.7</t>
         </is>
       </c>
-      <c r="L81" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="L81" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="M81" s="3" t="inlineStr">
         <is>
@@ -20018,9 +20020,10 @@
       <c r="R261" s="3" t="n"/>
     </row>
     <row r="262">
-      <c r="A262" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
@@ -20094,9 +20097,10 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A263" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
@@ -20162,9 +20166,10 @@
       <c r="R263" s="3" t="n"/>
     </row>
     <row r="264">
-      <c r="A264" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
@@ -20246,9 +20251,10 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A265" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B265" s="3" t="inlineStr">
         <is>
@@ -20318,9 +20324,10 @@
       <c r="R265" s="3" t="n"/>
     </row>
     <row r="266">
-      <c r="A266" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A266" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B266" s="3" t="inlineStr">
         <is>
@@ -20390,9 +20397,10 @@
       <c r="R266" s="3" t="n"/>
     </row>
     <row r="267">
-      <c r="A267" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A267" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
@@ -20462,9 +20470,10 @@
       <c r="R267" s="3" t="n"/>
     </row>
     <row r="268">
-      <c r="A268" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A268" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
@@ -20534,9 +20543,10 @@
       <c r="R268" s="3" t="n"/>
     </row>
     <row r="269">
-      <c r="A269" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A269" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B269" s="3" t="inlineStr">
         <is>
@@ -20602,9 +20612,10 @@
       <c r="R269" s="3" t="n"/>
     </row>
     <row r="270">
-      <c r="A270" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
@@ -20686,9 +20697,10 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A271" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B271" s="3" t="inlineStr">
         <is>
@@ -20758,9 +20770,10 @@
       <c r="R271" s="3" t="n"/>
     </row>
     <row r="272">
-      <c r="A272" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A272" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
@@ -20826,9 +20839,10 @@
       <c r="R272" s="3" t="n"/>
     </row>
     <row r="273">
-      <c r="A273" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A273" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B273" s="3" t="inlineStr">
         <is>
@@ -20898,9 +20912,10 @@
       <c r="R273" s="3" t="n"/>
     </row>
     <row r="274">
-      <c r="A274" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A274" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B274" s="3" t="inlineStr">
         <is>
@@ -20982,9 +20997,10 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A275" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
         <is>
@@ -21054,9 +21070,10 @@
       <c r="R275" s="3" t="n"/>
     </row>
     <row r="276">
-      <c r="A276" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B276" s="3" t="inlineStr">
         <is>
@@ -21126,9 +21143,10 @@
       <c r="R276" s="3" t="n"/>
     </row>
     <row r="277">
-      <c r="A277" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A277" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B277" s="3" t="inlineStr">
         <is>
@@ -21198,9 +21216,10 @@
       <c r="R277" s="3" t="n"/>
     </row>
     <row r="278">
-      <c r="A278" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A278" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B278" s="3" t="inlineStr">
         <is>
@@ -21270,9 +21289,10 @@
       <c r="R278" s="3" t="n"/>
     </row>
     <row r="279">
-      <c r="A279" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A279" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
@@ -21342,9 +21362,10 @@
       <c r="R279" s="3" t="n"/>
     </row>
     <row r="280">
-      <c r="A280" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A280" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
@@ -21418,9 +21439,10 @@
       <c r="R280" s="3" t="n"/>
     </row>
     <row r="281">
-      <c r="A281" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A281" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B281" s="3" t="inlineStr">
         <is>
@@ -21490,9 +21512,10 @@
       <c r="R281" s="3" t="n"/>
     </row>
     <row r="282">
-      <c r="A282" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A282" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
@@ -22109,9 +22132,10 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A290" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B290" s="3" t="inlineStr">
         <is>
@@ -22180,9 +22204,10 @@
       <c r="R290" s="3" t="n"/>
     </row>
     <row r="291">
-      <c r="A291" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A291" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
@@ -22251,9 +22276,10 @@
       <c r="R291" s="3" t="n"/>
     </row>
     <row r="292">
-      <c r="A292" s="2">
-        <f>DF--.1 '=DF--.1</f>
-        <v/>
+      <c r="A292" s="2" t="inlineStr">
+        <is>
+          <t>'=DF--.1</t>
+        </is>
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
@@ -22692,14 +22718,6401 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:K205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1 
+ +VI1-KF56 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DIO8 DIO8 Push Pull</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>-WD++1+VI1-KF56-XD02/
+ ++1+VI2-KF54-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1 
+ +VI2-KF54 
+ MURRELEKTRONIK 
+ MVK-MPNIO F DI8/DO4</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>-WD++1+VI2-KF54-XD02/
+ ++1+VI3-KF54-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1 
+ +VI3-KF54 
+ MURRELEKTRONIK 
+ MVK-MPNIO F DI8/DO4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>-WD++1+VI3-KF54-XD02/
+ ++2+VI1-KF56-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>'=DF--.1++2 
+ +VI1-KF56 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DIO8 DIO8 Push Pull</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>-WD++2+VI1-KF56-XD02/
+ ++2+VI2-KF54-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>'=DF--.1++2 
+ +VI2-KF54 
+ MURRELEKTRONIK 
+ MVK-MPNIO F DI8/DO4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.000SD1 
+ -FQ01 
+ EUCHNER 
+ MGB-L2HEB-PNC-L</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD1-FQ01-X2/
+ ++1.000SD2-FQ01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.000SD2 
+ -FQ01 
+ EUCHNER 
+ MGB-L2HEB-PNC-L</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD2-FQ01-X2/
+ ++1.000SD3-FQ01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.000SD3 
+ -FQ01 
+ EUCHNER 
+ MGB-L2HEB-PNC-L</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD3-FQ01-X2/
+ ++1.000SD4-FQ01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.000SD4 
+ -FQ01 
+ EUCHNER 
+ MGB-L2HEB-PNC-L</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD4-FQ01-X2/
+ ++1.000SD5-FQ01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.000SD5 
+ -FQ01 
+ EUCHNER 
+ MGB-L2HEB-PNC-L</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-WD++1.000SD5-FQ01-X2/
+ ++2.000SD1-FQ01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>'=DF--.1++2.000SD1 
+ -FQ01 
+ EUCHNER 
+ MGB-L2HEB-PNC-L</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010DP1 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-WD++1.010DP1+VI1-KF53-XD02/
+ ++1.010SW2+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW2 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010FX1 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-WD++1.010FX1+VI1-KF41.3-X0/
+ ++1.010FX2+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010FX2 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010FX2 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-WD++1.010FX2+VI1-KF41.3-X0/
+ ++1.010FX3+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010FX3 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010FX3 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-WD++1.010FX3+VI1-KF41.3-X0/
+ ++1.010FX4+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010FX4 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +CG1-XG3_2 
+ </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR1+CG1-XG3_2/
+ ++1.010IR1+TS1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010IR1 
+ +TS1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010IR1 
+ +DS1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR1+DS1-KF53-XD02/
+ ++1.010IR1+DS1-X01-A 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +DS1-X01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +GR1-X01 
+ </t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR1+GR1-X01-A/
+ ++1.010IR1+GR1-KF41.0-X0 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010IR1 
+ +GR1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +GR2-X01 
+ </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR1+GR2-X01-A/
+ ++1.010IR1+GR2-KF41.0-X0 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010IR1 
+ +GR2-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR1+IA001-XD01/
+ ++1.010IR1+IA003-XD01 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +IA003-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR1+IA003-XD01/
+ ++1.010IR1+DS1-KF53-XD01 
+ 4.003.854 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010IR1 
+ +DS1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +RC1-XG12.1_TA1 
+ </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR1+RC1-XG12.1_TA1/
+ ++1.010IR1+IA001-XD01 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +RC1-XG12.2_TA1 
+ </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR1+RC1-XG12.2_TA1/
+ ++1.010IR1+CG1-XG3_1 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +CG1-XG3_1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +CW1-XD2 
+ </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR2+CW1-XD2/
+ ++1.010IR2+IA001-XD73 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA001-XD73 
+ </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR2+IA001-XD73/
+ ++1.010IR2+IA003-XD93 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA003-XD93 
+ </t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR2+IA003-XD93/
+ ++1.010IR2+IA006-XD103 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA006-XD103 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +CW1-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR2+CW1-XD3/
+ ++1.010IR2+IA001-XD73.1 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA001-XD73.1 
+ </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR2+IA001-XD73.1/
+ ++1.010IR2+IA003-XD93.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA003-XD93.1 
+ </t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR2+IA003-XD93.1/
+ ++1.010IR2+IA006-XD103.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA006-XD103.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +CW1-XD12 
+ </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR2+CW1-XD12/
+ ++1.010IR2+TC1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010IR2 
+ +TC1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +CW1-XD21 
+ </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR2+CW1-XD21/
+ ++1.010IR2+TD1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +TD1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.010IR2+TD1-XD1/
+ ++1.010IR2+TD1-MA1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +TD1-MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +CW1-XD31 
+ </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.010IR2+CW1-XD31/
+ ++1.010IR2+IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.010IR2+IA001-XM7.1/
+ ++1.010IR2+IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.010IR2+IA003-XM7.3/
+ ++1.010IR2+IA006-XM7 
+ </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA006-XM7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +CW1-XD32 
+ </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.010IR2+CW1-XD32/
+ ++1.010IR2+IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.010IR2+IA001-XD1.1/
+ ++1.010IR2+IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.010IR2+IA003-XD3/
+ ++1.010IR2+IA006-XD6 
+ </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA006-XD6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +RC1-XG12.1_TA2 
+ </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>-WD++1.010IR2+RC1-XG12.1_TA2/
+ ++1.010IR2+CW1-XD11 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +CW1-XD11 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW1 
+ +VI1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-WD++1.010SW1+VI1-KF51-XD02/
+ ++1.010SW1+VI2-KF52-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW1 
+ +VI2-KF52 
+ MURRELEKTRONIK 
+ MVK-MPNIO F DI16/8</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-WD++1.010SW1+VI2-KF52-XD02/
+ ++1.010TT1+VI1-KF52-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ +VI1-KF52 
+ MURRELEKTRONIK 
+ MVK-MPNIO F DI16/8</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-WD++1.010TT1+VI1-KF52-XD02/
+ ++1.010TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010SW1 
+ -A6 
+ </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-WD++1.010SW1-A6-XD3/
+ ++1.010SW1+VI1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW1 
+ +VI1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010SW1 
+ -BG01 
+ </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>-WD++1.010SW1-BG01-XD1B-XD2/
+ ++1.010SW1-A6-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010SW1 
+ -A6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW2 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>-WD++1.010SW2+JB9-0XD01/
+ ++1.010SW2-0BG01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW2 
+ -0BG01 
+ MERTEN 
+ MEG3116-8029</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW2 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>-WD++1.010SW2+JB9-0XD01/
+ ++1.010SW2-0EA01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW2 
+ -0EA01 
+ RIDI 
+ PFZO-T16-R1X145/45ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW2 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>-WD++1.010SW2+VI1-KF41.3-X0/
+ ++1.035RS1+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.035RS1 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>-WD++1.010TT1+DU1-TA01-X1/
+ ++1.050TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 
+ 4G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>-WD++1.050TT1+DU1-TA01-X2012/
+ ++1.050TT1-MA1-XD1 
+ SEW - 18118186 
+ 4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050TT1 
+ -MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>-WD++1.010TT1+DU1-TA01-X2012/
+ ++1.010TT1-MA1-XD1 
+ SEW - 18118186 
+ 4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010TT1 
+ -MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>-WD++1.010TT1+DU1-TA01-X2301/
+ ++1.010TT1+DU1-RA1 
+ SEW - 18166563 
+ 3x2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ +DU1-RA1 
+ SEW 
+ BW100-004-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>-WD++1.010TT1-XD01A/
+ ++1.010TT1-XD01B 
+ ÖLFLEX CLASSIC FD 810 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ -XD01B 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>-WD++1.010TT1-XD01B/
+ ++1.010FX1+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010FX1 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.035IR1 
+ +DS1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>-WD++1.035IR1+DS1-KF53-XD02/
+ ++1.035IR1+DS1-X01-A 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +DS1-X01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +GR1-X01 
+ </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>-WD++1.035IR1+GR1-X01-A/
+ ++1.035IR1+GR1-KF41.0-X0 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.035IR1 
+ +GR1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +GR2-X01 
+ </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>-WD++1.035IR1+GR2-X01-A/
+ ++1.035IR1+GR2-KF41.0-X0 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.035IR1 
+ +GR2-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>-WD++1.035IR1+IA001-XD01/
+ ++1.035IR1+IA003-XD01 
+ 4.003.854 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +IA003-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-WD++1.035IR1+IA003-XD01/
+ ++1.035IR1+DS1-KF53-XD01 
+ 4.003.854 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.035IR1 
+ +DS1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +RC1-XG12.1 
+ </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>-WD++1.035IR1+RC1-XG12.1/
+ ++1.035IR1+IA001-XD01 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +RC1-XG12.2 
+ </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>-WD++1.035IR1+RC1-XG12.2/
+ ++1.035IR1+TS1-KF51-XD01 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.035IR1 
+ +TS1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.035RS1 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>-WD++1.035RS1+VI1-KF41.3-X0/
+ ++1.050TT1+VI1-KF53-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050TT1 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>-WD++1.050TT1+VI1-KF53-XD02/
+ ++1.050TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050DP1 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>-WD++1.050DP1+VI1-KF41.3-X0/
+ ++1.050SW1+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050SW1 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050FX1 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>-WD++1.050FX1+VI1-KF41.3-X0/
+ ++1.050FX2+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050FX2 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050FX2 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>-WD++1.050FX2+VI1-KF41.3-X0/
+ ++1.050FX3+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050FX3 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050FX3 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>-WD++1.050FX3+VI1-KF41.3-X0/
+ ++1.050FX4+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050FX4 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +CW1-XD2 
+ </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR1+CW1-XD2/
+ ++1.050IR1+IA001-XD73 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA001-XD73 
+ </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR1+IA001-XD73/
+ ++1.050IR1+IA003-XD93 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA003-XD93 
+ </t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR1+IA003-XD93/
+ ++1.050IR1+IA006-XD103 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA006-XD103 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +CW1-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR1+CW1-XD3/
+ ++1.050IR1+IA001-XD73.1 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA001-XD73.1 
+ </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR1+IA001-XD73.1/
+ ++1.050IR1+IA003-XD93.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA003-XD93.1 
+ </t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR1+IA003-XD93.1/
+ ++1.050IR1+IA006-XD103.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA006-XD103.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +CW1-XD12 
+ </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR1+CW1-XD12/
+ ++1.050IR1+TC1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050IR1 
+ +TC1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +CW1-XD21 
+ </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR1+CW1-XD21/
+ ++1.050IR1+TD1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +TD1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.050IR1+TD1-XD1/
+ ++1.050IR1+TD1-MA1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +TD1-MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +CW1-XD31 
+ </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.050IR1+CW1-XD31/
+ ++1.050IR1+IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.050IR1+IA001-XM7.1/
+ ++1.050IR1+IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.050IR1+IA003-XM7.3/
+ ++1.050IR1+IA006-XM7 
+ </t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA006-XM7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +CW1-XD32 
+ </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.050IR1+CW1-XD32/
+ ++1.050IR1+IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.050IR1+IA001-XD1.1/
+ ++1.050IR1+IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.050IR1+IA003-XD3/
+ ++1.050IR1+IA006-XD6 
+ </t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +IA006-XD6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +RC1-XG12.1 
+ </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR1+RC1-XG12.1/
+ ++1.050IR1+CW1-XD11 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +CW1-XD11 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CG1-XG3_2 
+ </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+CG1-XG3_2/
+ ++1.050IR2+TS1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050IR2 
+ +TS1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CW1-XD2 
+ </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+CW1-XD2/
+ ++1.050IR2+IA006-XD103 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +IA006-XD103 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CW1-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+CW1-XD3/
+ ++1.050IR2+IA006-XD103.1 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +IA006-XD103.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CW1-XD12 
+ </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+CW1-XD12/
+ ++1.050IR2+TD1-TA1-X24 
+ ÖLFLEX CLASSIC 110 G 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +TD1-TA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CW1-XD21 
+ </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+CW1-XD21/
+ ++1.050IR2+TD1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +TD1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+TD1-XD1/
+ ++1.050IR2+TD1-MA1-XD1 
+ 4x1,5 mm²</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +TD1-MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CW1-XD31 
+ </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.050IR2+CW1-XD31/
+ ++1.050IR2+IA006-XM7 
+ </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +IA006-XM7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CW1-XD32 
+ </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.050IR2+CW1-XD32/
+ ++1.050IR2+IA006-XD6 
+ </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +IA006-XD6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050IR2 
+ +DS1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+DS1-KF53-XD02/
+ ++1.050IR2+DS1-X01-A 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +DS1-X01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +GR1-X01 
+ </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+GR1-X01-A/
+ ++1.050IR2+GR1-KF41.0-X0 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050IR2 
+ +GR1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +GR2-X01 
+ </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+GR2-X01-A/
+ ++1.050IR2+GR2-KF41.0-X0 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050IR2 
+ +GR2-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+IA001-XD01/
+ ++1.050IR2+IA003-XD01 
+ 4.003.854 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +IA003-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+IA003-XD01/
+ ++1.050IR2+DS1-KF53-XD01 
+ 4.003.854 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050IR2 
+ +DS1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +RC1-XG12.1 
+ </t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+RC1-XG12.1/
+ ++1.050IR2+IA001-XD01 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +RC1-XG12.2 
+ </t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+RC1-XG12.2/
+ ++1.050IR2+CW1-XD11 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CW1-XD11 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +RC1-XG12.3 
+ </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>-WD++1.050IR2+RC1-XG12.3/
+ ++1.050IR2+CG1-XG3_1 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CG1-XG3_1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050SW1 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>-WD++1.050SW1+JB9-0XD01/
+ ++1.050SW1-0BG01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050SW1 
+ -0BG01 
+ MERTEN 
+ MEG3116-8029</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050SW1 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>-WD++1.050SW1+JB9-0XD01/
+ ++1.050SW1-0EA01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050SW1 
+ -0EA01 
+ RIDI 
+ PFZO-T16-R1X145/45ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050SW1 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>-WD++1.050SW1+VI1-KF41.3-X0/
+ ++1.070SW1-BG01-XD1B-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070SW1 
+ -BG01 
+ </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>-WD++1.070SW1-BG01-XD1B-XD2/
+ ++1.070SW1-A6-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070SW1 
+ -A6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050SW1 
+ -BG01 
+ </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>-WD++1.050SW1-BG01-XD1B-XD2/
+ ++1.050DP1+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050DP1 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>-WD++1.050TT1+DU1-TA01-X2301/
+ ++1.050TT1+DU1-RA1 
+ SEW - 18166563 
+ 3x2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050TT1 
+ +DU1-RA1 
+ SEW 
+ BW100-004-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>-WD++1.050TT1-XD01A/
+ ++1.050TT1-XD01B 
+ ÖLFLEX CLASSIC FD 810 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050TT1 
+ -XD01B 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>-WD++1.050TT1-XD01B/
+ ++1.050FX1+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050FX1 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060DP1 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>-WD++1.060DP1+VI1-KF53-XD02/
+ ++1.060SW2+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW2 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060FX1 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>-WD++1.060FX1+VI1-KF41.3-X0/
+ ++1.060FX2+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060FX2 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060FX2 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-WD++1.060FX2+VI1-KF41.3-X0/
+ ++1.060FX3+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060FX3 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060FX3 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>-WD++1.060FX3+VI1-KF41.3-X0/
+ ++1.060FX4+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060FX4 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR1+IA001-XD01/
+ ++1.060IR1+IA003-XD01 
+ 4.003.854 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +IA003-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR1+IA003-XD01/
+ ++1.060IR1+GR1-KF41.0-X0 
+ 4.003.854 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060IR1 
+ +GR1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +RC1-XG12.1_TA1 
+ </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR1+RC1-XG12.1_TA1/
+ ++1.060IR1+IA001-XD01 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +RC1-XG12.2_TA1 
+ </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR1+RC1-XG12.2_TA1/
+ ++1.060IR1+CG1-XG3_1 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +CG1-XG3_1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +CW1-XD2 
+ </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR2+CW1-XD2/
+ ++1.060IR2+IA001-XD73 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA001-XD73 
+ </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR2+IA001-XD73/
+ ++1.060IR2+IA003-XD93 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA003-XD93 
+ </t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR2+IA003-XD93/
+ ++1.060IR2+IA006-XD103 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA006-XD103 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +CW1-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR2+CW1-XD3/
+ ++1.060IR2+IA001-XD73.1 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA001-XD73.1 
+ </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR2+IA001-XD73.1/
+ ++1.060IR2+IA003-XD93.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA003-XD93.1 
+ </t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR2+IA003-XD93.1/
+ ++1.060IR2+IA006-XD103.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA006-XD103.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +CW1-XD12 
+ </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR2+CW1-XD12/
+ ++1.060IR2+TC1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060IR2 
+ +TC1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +CW1-XD21 
+ </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR2+CW1-XD21/
+ ++1.060IR2+TD1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +TD1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.060IR2+TD1-XD1/
+ ++1.060IR2+TD1-MA1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +TD1-MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +CW1-XD31 
+ </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.060IR2+CW1-XD31/
+ ++1.060IR2+IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.060IR2+IA001-XM7.1/
+ ++1.060IR2+IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.060IR2+IA003-XM7.3/
+ ++1.060IR2+IA006-XM7 
+ </t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA006-XM7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +CW1-XD32 
+ </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.060IR2+CW1-XD32/
+ ++1.060IR2+IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.060IR2+IA001-XD1.1/
+ ++1.060IR2+IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.060IR2+IA003-XD3/
+ ++1.060IR2+IA006-XD6 
+ </t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +IA006-XD6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +RC1-XG12.1_TA2 
+ </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>-WD++1.060IR2+RC1-XG12.1_TA2/
+ ++1.060IR2+CW1-XD11 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +CW1-XD11 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW1 
+ +VI1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>-WD++1.060SW1+VI1-KF51-XD02/
+ ++1.060SW1+VI2-KF52-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW1 
+ +VI2-KF52 
+ MURRELEKTRONIK 
+ MVK-MPNIO F DI16/8</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>-WD++1.060SW1+VI2-KF52-XD02/
+ ++1.060TT1+VI1-KF52-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ +VI1-KF52 
+ MURRELEKTRONIK 
+ MVK-MPNIO F DI16/8</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>-WD++1.060TT1+VI1-KF52-XD02/
+ ++1.060TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060SW1 
+ -A6 
+ </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>-WD++1.060SW1-A6-XD3/
+ ++1.060SW1+VI1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW1 
+ +VI1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060SW1 
+ -BG01 
+ </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>-WD++1.060SW1-BG01-XD1B-XD2/
+ ++1.060SW1-A6-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060SW1 
+ -A6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW2 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>-WD++1.060SW2+JB9-0XD01/
+ ++1.060SW2-0BG01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW2 
+ -0BG01 
+ MERTEN 
+ MEG3116-8029</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW2 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>-WD++1.060SW2+JB9-0XD01/
+ ++1.060SW2-0EA01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW2 
+ -0EA01 
+ RIDI 
+ PFZO-T16-R1X145/45ND</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW2 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>-WD++1.060SW2+VI1-KF41.3-X0/
+ ++1.060SW1-BG01-XD1B-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060SW1 
+ -BG01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060SW2 
+ -BG01 
+ </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>-WD++1.060SW2-BG01-XD1B-XD2/
+ ++1.060DP1+VI1-KF53-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060DP1 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>-WD++1.060TT1+DU1-TA01-X1/
+ ++1.070TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 
+ 4G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>-WD++1.070TT1+DU1-TA01-X2012/
+ ++1.070TT1-MA1-XD1 
+ SEW - 18118186 
+ 4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070TT1 
+ -MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>-WD++1.060TT1+DU1-TA01-X2012/
+ ++1.060TT1-MA1-XD1 
+ SEW - 18118186 
+ 4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060TT1 
+ -MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>-WD++1.060TT1+DU1-TA01-X2301/
+ ++1.060TT1+DU1-RA1 
+ SEW - 18166563 
+ 3x2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ +DU1-RA1 
+ SEW 
+ BW100-004-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>-WD++1.060TT1-XD01A/
+ ++1.060TT1-XD01B 
+ ÖLFLEX CLASSIC FD 810 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ -XD01B 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>-WD++1.060TT1-XD01B/
+ ++1.060FX1+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060FX1 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070FX1 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>-WD++1.070FX1+VI1-KF41.3-X0/
+ ++1.070FX2+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070FX2 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070FX2 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>-WD++1.070FX2+VI1-KF41.3-X0/
+ ++1.070FX3+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070FX3 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070FX3 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>-WD++1.070FX3+VI1-KF41.3-X0/
+ ++1.070FX4+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070FX4 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +CW1-XD2 
+ </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>-WD++1.070IR1+CW1-XD2/
+ ++1.070IR1+IA001-XD73 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA001-XD73 
+ </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>-WD++1.070IR1+IA001-XD73/
+ ++1.070IR1+IA003-XD93 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA003-XD93 
+ </t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>-WD++1.070IR1+IA003-XD93/
+ ++1.070IR1+IA006-XD103 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA006-XD103 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +CW1-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>-WD++1.070IR1+CW1-XD3/
+ ++1.070IR1+IA001-XD73.1 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA001-XD73.1 
+ </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>-WD++1.070IR1+IA001-XD73.1/
+ ++1.070IR1+IA003-XD93.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA003-XD93.1 
+ </t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>-WD++1.070IR1+IA003-XD93.1/
+ ++1.070IR1+IA006-XD103.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA006-XD103.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +CW1-XD12 
+ </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>-WD++1.070IR1+CW1-XD12/
+ ++1.070IR1+TC1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070IR1 
+ +TC1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +CW1-XD21 
+ </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>-WD++1.070IR1+CW1-XD21/
+ ++1.070IR1+TD1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +TD1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.070IR1+TD1-XD1/
+ ++1.070IR1+TD1-MA1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +TD1-MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +CW1-XD31 
+ </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.070IR1+CW1-XD31/
+ ++1.070IR1+IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.070IR1+IA001-XM7.1/
+ ++1.070IR1+IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.070IR1+IA003-XM7.3/
+ ++1.070IR1+IA006-XM7 
+ </t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA006-XM7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +CW1-XD32 
+ </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.070IR1+CW1-XD32/
+ ++1.070IR1+IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.070IR1+IA001-XD1.1/
+ ++1.070IR1+IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.070IR1+IA003-XD3/
+ ++1.070IR1+IA006-XD6 
+ </t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +IA006-XD6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +RC1-XG12.1_TA1 
+ </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>-WD++1.070IR1+RC1-XG12.1_TA1/
+ ++1.070IR1+CW1-XD11 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +CW1-XD11 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070SW1 
+ +VI1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>-WD++1.070SW1+VI1-KF51-XD02/
+ ++1.070SW1+VI2-KF52-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070SW1 
+ +VI2-KF52 
+ MURRELEKTRONIK 
+ MVK-MPNIO F DI16/8</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>-WD++1.070SW1+VI2-KF52-XD02/
+ ++1.070TT1+VI1-KF52-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070TT1 
+ +VI1-KF52 
+ MURRELEKTRONIK 
+ MVK-MPNIO F DI16/8</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>-WD++1.070TT1+VI1-KF52-XD02/
+ ++1.070TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070SW1 
+ -A6 
+ </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>-WD++1.070SW1-A6-XD3/
+ ++1.070SW1+VI1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070SW1 
+ +VI1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>-WD++1.070TT1+DU1-TA01-X2301/
+ ++1.070TT1+DU1-RA1 
+ SEW - 18166563 
+ 3x2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070TT1 
+ +DU1-RA1 
+ SEW 
+ BW100-004-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>-WD++1.070TT1-XD01A/
+ ++1.070TT1-XD01B 
+ ÖLFLEX CLASSIC FD 810 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070TT1 
+ -XD01B 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>-WD++1.070TT1-XD01B/
+ ++1.070FX1+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070FX1 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.080IR1 
+ +DS1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>-WD++1.080IR1+DS1-KF53-XD02/
+ ++1.080IR1+DS1-X01-A 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.080IR1 
+ +DS1-X01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.080IR1 
+ +GR1-X01 
+ </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>-WD++1.080IR1+GR1-X01-A/
+ ++1.080IR1+GR1-KF41.0-X0 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.080IR1 
+ +GR1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.080IR1 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>-WD++1.080IR1+IA001-XD01/
+ ++1.080IR1+IA003-XD01 
+ 4.003.854 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.080IR1 
+ +IA003-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>-WD++1.080IR1+IA003-XD01/
+ ++1.080IR1+DS1-KF53-XD01 
+ 4.003.854 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.080IR1 
+ +DS1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090FX1 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>-WD++1.090FX1+VI1-KF41.3-X0/
+ ++1.090FX2+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090FX2 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090FX2 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>-WD++1.090FX2+VI1-KF41.3-X0/
+ ++1.090FX3+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090FX3 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090FX3 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>-WD++1.090FX3+VI1-KF41.3-X0/
+ ++1.090FX4+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090FX4 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +CW1-XD2 
+ </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR1+CW1-XD2/
+ ++1.090IR1+IA001-XD73 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA001-XD73 
+ </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR1+IA001-XD73/
+ ++1.090IR1+IA003-XD93 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA003-XD93 
+ </t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR1+IA003-XD93/
+ ++1.090IR1+IA006-XD103 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA006-XD103 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +CW1-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR1+CW1-XD3/
+ ++1.090IR1+IA001-XD73.1 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA001-XD73.1 
+ </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR1+IA001-XD73.1/
+ ++1.090IR1+IA003-XD93.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA003-XD93.1 
+ </t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR1+IA003-XD93.1/
+ ++1.090IR1+IA006-XD103.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA006-XD103.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +CW1-XD12 
+ </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR1+CW1-XD12/
+ ++1.090IR1+TC1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090IR1 
+ +TC1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +CW1-XD21 
+ </t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR1+CW1-XD21/
+ ++1.090IR1+TD1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +TD1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR1+TD1-XD1/
+ ++1.090IR1+TD1-MA1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +TD1-MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +CW1-XD31 
+ </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR1+CW1-XD31/
+ ++1.090IR1+IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR1+IA001-XM7.1/
+ ++1.090IR1+IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR1+IA003-XM7.3/
+ ++1.090IR1+IA006-XM7 
+ </t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA006-XM7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +CW1-XD32 
+ </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR1+CW1-XD32/
+ ++1.090IR1+IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR1+IA001-XD1.1/
+ ++1.090IR1+IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR1+IA003-XD3/
+ ++1.090IR1+IA006-XD6 
+ </t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +IA006-XD6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +RC1-XG12.1 
+ </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR1+RC1-XG12.1/
+ ++1.090IR1+CW1-XD11 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +CW1-XD11 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +CW1-XD2 
+ </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR2+CW1-XD2/
+ ++1.090IR2+IA001-XD73 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA001-XD73 
+ </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR2+IA001-XD73/
+ ++1.090IR2+IA003-XD93 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA003-XD93 
+ </t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR2+IA003-XD93/
+ ++1.090IR2+IA006-XD103 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA006-XD103 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +CW1-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR2+CW1-XD3/
+ ++1.090IR2+IA001-XD73.1 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA001-XD73.1 
+ </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR2+IA001-XD73.1/
+ ++1.090IR2+IA003-XD93.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA003-XD93.1 
+ </t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR2+IA003-XD93.1/
+ ++1.090IR2+IA006-XD103.1 
+ 3G50 mm²</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA006-XD103.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +CW1-XD12 
+ </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR2+CW1-XD12/
+ ++1.090IR2+TC1-KF51-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090IR2 
+ +TC1-KF51 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +CW1-XD21 
+ </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR2+CW1-XD21/
+ ++1.090IR2+TD1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +TD1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR2+TD1-XD1/
+ ++1.090IR2+TD1-MA1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +TD1-MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +CW1-XD31 
+ </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR2+CW1-XD31/
+ ++1.090IR2+IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA001-XM7.1 
+ </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR2+IA001-XM7.1/
+ ++1.090IR2+IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA003-XM7.3 
+ </t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR2+IA003-XM7.3/
+ ++1.090IR2+IA006-XM7 
+ </t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA006-XM7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +CW1-XD32 
+ </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR2+CW1-XD32/
+ ++1.090IR2+IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA001-XD1.1 
+ </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR2+IA001-XD1.1/
+ ++1.090IR2+IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA003-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.090IR2+IA003-XD3/
+ ++1.090IR2+IA006-XD6 
+ </t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +IA006-XD6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +RC1-XG12.1 
+ </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>-WD++1.090IR2+RC1-XG12.1/
+ ++1.090IR2+CW1-XD11 
+ ÖLFLEX® CLASSIC 110 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +CW1-XD11 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>-WD++1.090TT1+DU1-TA01-X2012/
+ ++1.090TT1-MA1-XD1 
+ SEW - 18118186 
+ 4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090TT1 
+ -MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>-WD++1.090TT1+DU1-TA01-X2301/
+ ++1.090TT1+DU1-RA1 
+ SEW - 18166563 
+ 3x2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ +DU1-RA1 
+ SEW 
+ BW100-004-00</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>-WD++1.090TT1+VI1-KF53-XD02/
+ ++1.090TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>-WD++1.090TT1-XD01A/
+ ++1.090TT1-XD01B 
+ ÖLFLEX CLASSIC FD 810 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ -XD01B 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>-WD++1.090TT1-XD01B/
+ ++1.090FX1+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090FX1 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +CW1-XD2 
+ </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>-WD++1.100IR1+CW1-XD2/
+ ++1.100IR1+IA006-XD103 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +IA006-XD103 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +CW1-XD3 
+ </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>-WD++1.100IR1+CW1-XD3/
+ ++1.100IR1+IA006-XD103.1 
+ ÖLFLEX® CLASSIC 100 
+ 3G50 mm</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +IA006-XD103.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +CW1-XD21 
+ </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>-WD++1.100IR1+CW1-XD21/
+ ++1.100IR1+TD1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +TD1-XD1 
+ </t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>-WD++1.100IR1+TD1-XD1/
+ ++1.100IR1+TD1-MA1-XD1 
+ 4x1,5 mm²</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +TD1-MA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +CW1-XD31 
+ </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.100IR1+CW1-XD31/
+ ++1.100IR1+IA006-XM7 
+ </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +IA006-XM7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +CW1-XD32 
+ </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-WD++1.100IR1+CW1-XD32/
+ ++1.100IR1+IA006-XD6 
+ </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +IA006-XD6 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +GR1-X01 
+ </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>-WD++1.100IR1+GR1-X01-A/
+ ++1.100IR1+GR1-KF41.0-X0 
+ STÄUBLI 
+ 5G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.100IR1 
+ +GR1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +IA001-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>-WD++1.100IR1+IA001-XD01/
+ ++1.100IR1+IA003-XD01 
+ 4.003.854 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +IA003-XD01 
+ </t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>-WD++1.100IR1+IA003-XD01/
+ ++1.100IR1+DS1-KF53-XD01 
+ 4.003.854 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.100IR1 
+ +DS1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>'=DF--.1++2.110DP1 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>-WD++2.110DP1+VI1-KF53-XD02/
+ ++2.110DP2+VI1-KF53-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>'=DF--.1++2.110DP2 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>-WD++2.110DP2+VI1-KF53-XD02/
+ ++2.110SW2+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>'=DF--.1++2.110SW2 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>'=DF--.1++2.110SW1 
+ +VI1-KF41.3 
+ FESTO 
+ CPX-M-16DE-D</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>-WD++2.110SW1+VI1-KF41.3-X0/
+ ++2.110DP1+VI1-KF53-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>'=DF--.1++2.110DP1 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD310 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD310/
+ ++OP1-XD3 
+ ÖLFLEX CLASSIC 110 G 
+ 3G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++OP1 
+ -XD3 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD310 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD310/
+ ++OP3-XD3 
+ ÖLFLEX CLASSIC 110 G 
+ 3G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++OP3 
+ -XD3 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.010IR1+RC1-XG11.1_TA1 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +RC1-XG11.1_TA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.010IR2+RC1-XG11.1_TA2 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +RC1-XG11.1_TA2 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.035IR1+RC1-XG11.1 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +RC1-XG11.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.050IR1+RC1-XG11.1 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +RC1-XG11.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.050IR2+RC1-XG11.1 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +RC1-XG11.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.060IR1+RC1-XG11.1_TA1 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +RC1-XG11.1_TA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.060IR2+RC1-XG11.1_TA2 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR2 
+ +RC1-XG11.1_TA2 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.070IR1+RC1-XG11.1_TA1 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +RC1-XG11.1_TA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.080IR1+RC1-XG11.1_TA2 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.080IR1 
+ +RC1-XG11.1_TA2 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.090IR1+RC1-XG11.1 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +RC1-XG11.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.090IR2+RC1-XG11.1 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +RC1-XG11.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD311 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD311/
+ ++1.100IR1+RC1-XG11.1 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +RC1-XG11.1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD320 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD320/
+ ++1.000SD1-FQ01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.000SD1 
+ -FQ01 
+ EUCHNER 
+ MGB-L2HEB-PNC-L</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD320 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD320/
+ ++1.010SW1-BG01-XD1B-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010SW1 
+ -BG01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD320 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD320/
+ ++1.010TT1-XD01A 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD320 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD320/
+ ++MS1+VI1-KF55-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>'=DF--.1++MS1 
+ +VI1-KF55 
+ MURRELEKTRONIK 
+ MVK-MPNIO DI6 DO6 IOL IRT</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>-WD++MS1+VI1-KF55-XD02/
+ ++1+VI1-KF56-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1 
+ +VI1-KF56 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DIO8 DIO8 Push Pull</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD321 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD321/
+ ++1.010SW2-BG01-XD1B-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010SW2 
+ -BG01 
+ </t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>-W++1.010SW2-BG01-XD1B-XD2/
+ ++1.010DP1+VI1-KF53-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010DP1 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD321 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD321/
+ ++1.050SW1-BG01-XD1B-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050SW1 
+ -BG01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD321 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD321/
+ ++1.050TT1-XD01A 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD322 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD322/
+ ++1.060SW2-BG01-XD1B-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060SW2 
+ -BG01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD322 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD322/
+ ++1.060TT1-XD01A 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD322 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD322/
+ ++1.090TT1+VI1-KF53-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ +VI1-KF53 
+ MURRELEKTRONIK 
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD322 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD322/
+ ++1.090TT1-XD01A 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD323 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>-WD++CC1-XD323/
+ ++2.110SW1+VI1-KF41.0-X0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>'=DF--.1++2.110SW1 
+ +VI1-KF41.0 
+ FESTO 
+ CPX-M-FB44</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0EA01 
+ RITTAL 
+ SZ.2500110</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0EA01-XO/
+ ++CC1-0EA01-XI 
+ ÖLFLEX® CLASSIC 110 
+ 2x1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -0EA01 
+ RITTAL 
+ SZ.2500110</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++1.010SW1+JB9-0XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW1 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++1.010SW2+JB9-0XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010SW2 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++1.050SW1+JB9-0XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.050SW1 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++1.060SW1+JB9-0XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW1 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++1.060SW2+JB9-0XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060SW2 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++1.070SW1+JB9-0XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070SW1 
+ +JB9-0XD01 
+ WAGO 
+ 221-415</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++CC1-0XD01.2 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ ++CC1-0XD01.3 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -0XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>-WD++CP1-0XD01/
+ -0XD23-3 
+ ÖLFLEX CLASSIC 110 G 
+ 3G1,5 mm²</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1 
+ -0XD23 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC1 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC1/
+ ++CC1-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD01 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC2 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC2/
+ ++1.010SW1-A7-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010SW1 
+ -A7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC3 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC3/
+ ++1.010TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC4 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC4/
+ ++1.010IR1+RC1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 4G4 mm²</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +RC1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC5 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC5/
+ ++1.035IR1+RC1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 4G4 mm²</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.035IR1 
+ +RC1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC6 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC6/
+ ++1.050IR1+RC1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 4G4 mm²</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR1 
+ +RC1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC7 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC7/
+ ++1.050IR2+RC1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 4G4 mm²</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +RC1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC8 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC8/
+ ++1.060SW1-A7-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060SW1 
+ -A7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC9 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC9/
+ ++1.060TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.060TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC10 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC10/
+ ++1.060IR1+RC1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 4G4 mm²</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +RC1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC11 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC11/
+ ++1.070SW1-A7-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070SW1 
+ -A7 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC12 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC12/
+ ++1.070IR1+RC1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 4G4 mm²</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.070IR1 
+ +RC1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC13 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC13/
+ ++1.090TT1+DU1-TA01-X1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.090TT1 
+ +DU1-TA01 
+ SEW 
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC14 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC14/
+ ++1.090IR1+RC1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 4G4 mm²</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR1 
+ +RC1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC15 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC15/
+ ++1.090IR2+RC1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 4G4 mm²</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.090IR2 
+ +RC1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC16 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC16/
+ ++1.100IR1+RC1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 4G4 mm²</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +RC1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC20 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC20/
+ ++1.010IR1+CG1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G4 mm²</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +CG1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC21 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC21/
+ ++1.050IR2+CG1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G4 mm²</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CG1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC22 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC22/
+ ++1.050IR2+TD1-TA1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +TD1-TA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC23 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC23/
+ ++1.060IR1+CG1-XD0 
+ ÖLFLEX CLASSIC 110 G 
+ 5G4 mm²</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +CG1-XD0 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC24 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>-WD++CP1-FC24/
+ ++1.100IR1+TD1-TA1-XD1 
+ ÖLFLEX CLASSIC 110 G 
+ 4G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.100IR1 
+ +TD1-TA1 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010FX1 
+ +VI1-XG41.46 
+ </t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>-W++1.010FX1+VI1-XG41.46-1/
+ ++1.010FX1+VI1-BG12.3 
+ PUR-OB (BK-BK) 
+ 4x0,34 mm²</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.010FX1 
+ +VI1-BG12.3 
+ TURCK 
+ BI8U-MT18-AP6X-H1141</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA001-XF01 
+ </t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>-W++1.010IR2+IA001-XF01/
+ ++1.010IR2+IA003-XF01 
+ 4.042.021 
+ 4x0,22 AWG</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR2 
+ +IA003-XF01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -KF20 
+ Siemens 
+ 6GK5224-0BA00-2AC2</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>-W++CC1-KF20-P24/
+ ++2.180IR1+CA1-A2-ETHERNET 
+ ETHERNET 
+ 4x2x22 AWG</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++2.180IR1 
+ +CA1-A2 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD310 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>-W++CC1-XD310/
+ ++OP2-XD3 
+ ÖLFLEX CLASSIC 110 G 
+ 3G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++OP2 
+ -XD3 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CC1 
+ -XD321 
+ PHOENIX 
+ STS 4-TWIN/L</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>-W++CC1-XD321/
+ ++1.070TT1-XD01A 
+ ÖLFLEX CLASSIC 110 G 
+ 5G2,5 mm²</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>'=DF--.1++1.070TT1 
+ -XD01A 
+ WEIDMÜLLER 
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC19 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B203">
+        <f>DF-.1-WD++CP1-FC19.1/
+ ++1.010IR1+CG3-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G2,5 mm²</f>
+        <v/>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.010IR1 
+ +CG3-XD01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC19 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B204">
+        <f>DF-.1-WD++CP1-FC19.2/
+ ++1.050IR2+CG3-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G2,5 mm²</f>
+        <v/>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.050IR2 
+ +CG3-XD01 
+ </t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>'=DF--.1++CP1 
+ -FC19 
+ RITTAL 
+ SV.3418040</t>
+        </is>
+      </c>
+      <c r="B205">
+        <f>DF-.1-WD++CP1-FC19.3/
+ ++1.060IR1+CG3-XD01 
+ ÖLFLEX CLASSIC 110 G 
+ 3G2,5 mm²</f>
+        <v/>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'=DF--.1++1.060IR1 
+ +CG3-XD01 
+ </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/prueba26/copia_B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(2).xlsx
+++ b/prueba26/copia_B.06390_FFT_PS_MB_VAN_EA_DF1_Mangueras(2).xlsx
@@ -22730,12 +22730,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1">
-        <f>DF--.1++1 
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DF--.1++1 
  +VI1-KF56 
  MURRELEKTRONIK 
- MVK+ MPNIO DIO8 DIO8 Push Pull</f>
-        <v/>
+ MVK+ MPNIO DIO8 DIO8 Push Pull</t>
+        </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
@@ -22745,12 +22746,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C1">
-        <f>DF--.1++1 
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>DF--.1++1 
  +VI2-KF54 
  MURRELEKTRONIK 
- MVK-MPNIO F DI8/DO4</f>
-        <v/>
+ MVK-MPNIO F DI8/DO4</t>
+        </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
@@ -22760,12 +22762,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E1">
-        <f>DF--.1++1 
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>DF--.1++1 
  +VI3-KF54 
  MURRELEKTRONIK 
- MVK-MPNIO F DI8/DO4</f>
-        <v/>
+ MVK-MPNIO F DI8/DO4</t>
+        </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
@@ -22775,12 +22778,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="G1">
-        <f>DF--.1++2 
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>DF--.1++2 
  +VI1-KF56 
  MURRELEKTRONIK 
- MVK+ MPNIO DIO8 DIO8 Push Pull</f>
-        <v/>
+ MVK+ MPNIO DIO8 DIO8 Push Pull</t>
+        </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
@@ -22790,21 +22794,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="I1">
-        <f>DF--.1++2 
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>DF--.1++2 
  +VI2-KF54 
  MURRELEKTRONIK 
- MVK-MPNIO F DI8/DO4</f>
-        <v/>
+ MVK-MPNIO F DI8/DO4</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <f>DF--.1++1.000SD1 
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DF--.1++1.000SD1 
  -FQ01 
  EUCHNER 
- MGB-L2HEB-PNC-L</f>
-        <v/>
+ MGB-L2HEB-PNC-L</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -22814,12 +22820,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C2">
-        <f>DF--.1++1.000SD2 
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DF--.1++1.000SD2 
  -FQ01 
  EUCHNER 
- MGB-L2HEB-PNC-L</f>
-        <v/>
+ MGB-L2HEB-PNC-L</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -22829,12 +22836,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E2">
-        <f>DF--.1++1.000SD3 
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DF--.1++1.000SD3 
  -FQ01 
  EUCHNER 
- MGB-L2HEB-PNC-L</f>
-        <v/>
+ MGB-L2HEB-PNC-L</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -22844,12 +22852,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="G2">
-        <f>DF--.1++1.000SD4 
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DF--.1++1.000SD4 
  -FQ01 
  EUCHNER 
- MGB-L2HEB-PNC-L</f>
-        <v/>
+ MGB-L2HEB-PNC-L</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -22859,12 +22868,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="I2">
-        <f>DF--.1++1.000SD5 
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DF--.1++1.000SD5 
  -FQ01 
  EUCHNER 
- MGB-L2HEB-PNC-L</f>
-        <v/>
+ MGB-L2HEB-PNC-L</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -22874,21 +22884,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="K2">
-        <f>DF--.1++2.000SD1 
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DF--.1++2.000SD1 
  -FQ01 
  EUCHNER 
- MGB-L2HEB-PNC-L</f>
-        <v/>
+ MGB-L2HEB-PNC-L</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <f>DF--.1++1.010DP1 
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010DP1 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -22898,21 +22910,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C3">
-        <f>DF--.1++1.010SW2 
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW2 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <f>DF--.1++1.010FX1 
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010FX1 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -22922,21 +22936,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C4">
-        <f>DF--.1++1.010FX2 
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010FX2 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <f>DF--.1++1.010FX2 
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010FX2 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -22946,21 +22962,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C5">
-        <f>DF--.1++1.010FX3 
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010FX3 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <f>DF--.1++1.010FX3 
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010FX3 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -22970,20 +22988,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C6">
-        <f>DF--.1++1.010FX4 
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010FX4 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <f>DF--.1++1.010IR1 
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +CG1-XG3_2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -22993,21 +23013,23 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C7">
-        <f>DF--.1++1.010IR1 
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010IR1 
  +TS1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <f>DF--.1++1.010IR1 
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010IR1 
  +DS1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -23017,19 +23039,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C8">
-        <f>DF--.1++1.010IR1 
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +DS1-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
-        <f>DF--.1++1.010IR1 
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +GR1-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -23039,20 +23063,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C9">
-        <f>DF--.1++1.010IR1 
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010IR1 
  +GR1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
-        <f>DF--.1++1.010IR1 
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +GR2-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -23062,20 +23088,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C10">
-        <f>DF--.1++1.010IR1 
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010IR1 
  +GR2-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
-        <f>DF--.1++1.010IR1 
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -23084,11 +23112,12 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C11">
-        <f>DF--.1++1.010IR1 
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +IA003-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -23098,20 +23127,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="E11">
-        <f>DF--.1++1.010IR1 
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010IR1 
  +DS1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
-        <f>DF--.1++1.010IR1 
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +RC1-XG12.1_TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -23121,19 +23152,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C12">
-        <f>DF--.1++1.010IR1 
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
-        <f>DF--.1++1.010IR1 
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +RC1-XG12.2_TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -23143,19 +23176,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C13">
-        <f>DF--.1++1.010IR1 
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +CG1-XG3_1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
-        <f>DF--.1++1.010IR2 
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +CW1-XD2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -23165,11 +23200,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C14">
-        <f>DF--.1++1.010IR2 
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA001-XD73 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -23178,11 +23214,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E14">
-        <f>DF--.1++1.010IR2 
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA003-XD93 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -23191,19 +23228,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G14">
-        <f>DF--.1++1.010IR2 
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA006-XD103 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
-        <f>DF--.1++1.010IR2 
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +CW1-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -23213,11 +23252,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C15">
-        <f>DF--.1++1.010IR2 
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA001-XD73.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -23226,11 +23266,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E15">
-        <f>DF--.1++1.010IR2 
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA003-XD93.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -23239,19 +23280,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G15">
-        <f>DF--.1++1.010IR2 
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA006-XD103.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
-        <f>DF--.1++1.010IR2 
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +CW1-XD12 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -23261,20 +23304,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C16">
-        <f>DF--.1++1.010IR2 
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010IR2 
  +TC1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
-        <f>DF--.1++1.010IR2 
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +CW1-XD21 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -23284,11 +23329,12 @@
  4G1,5 mm²</t>
         </is>
       </c>
-      <c r="C17">
-        <f>DF--.1++1.010IR2 
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +TD1-XD1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -23297,19 +23343,21 @@
  </t>
         </is>
       </c>
-      <c r="E17">
-        <f>DF--.1++1.010IR2 
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +TD1-MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
-        <f>DF--.1++1.010IR2 
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +CW1-XD31 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -23318,11 +23366,12 @@
  </t>
         </is>
       </c>
-      <c r="C18">
-        <f>DF--.1++1.010IR2 
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA001-XM7.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -23331,11 +23380,12 @@
  </t>
         </is>
       </c>
-      <c r="E18">
-        <f>DF--.1++1.010IR2 
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA003-XM7.3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -23344,19 +23394,21 @@
  </t>
         </is>
       </c>
-      <c r="G18">
-        <f>DF--.1++1.010IR2 
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA006-XM7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
-        <f>DF--.1++1.010IR2 
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +CW1-XD32 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -23365,11 +23417,12 @@
  </t>
         </is>
       </c>
-      <c r="C19">
-        <f>DF--.1++1.010IR2 
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA001-XD1.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -23378,11 +23431,12 @@
  </t>
         </is>
       </c>
-      <c r="E19">
-        <f>DF--.1++1.010IR2 
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA003-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -23391,19 +23445,21 @@
  </t>
         </is>
       </c>
-      <c r="G19">
-        <f>DF--.1++1.010IR2 
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA006-XD6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
-        <f>DF--.1++1.010IR2 
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +RC1-XG12.1_TA2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -23413,20 +23469,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C20">
-        <f>DF--.1++1.010IR2 
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +CW1-XD11 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
-        <f>DF--.1++1.010SW1 
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW1 
  +VI1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -23436,12 +23494,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C21">
-        <f>DF--.1++1.010SW1 
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW1 
  +VI2-KF52 
  MURRELEKTRONIK 
- MVK-MPNIO F DI16/8</f>
-        <v/>
+ MVK-MPNIO F DI16/8</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -23451,12 +23510,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E21">
-        <f>DF--.1++1.010TT1 
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  +VI1-KF52 
  MURRELEKTRONIK 
- MVK-MPNIO F DI16/8</f>
-        <v/>
+ MVK-MPNIO F DI16/8</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -23466,20 +23526,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="G21">
-        <f>DF--.1++1.010TT1 
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
-        <f>DF--.1++1.010SW1 
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010SW1 
  -A6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -23489,20 +23551,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C22">
-        <f>DF--.1++1.010SW1 
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW1 
  +VI1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
-        <f>DF--.1++1.010SW1 
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010SW1 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -23512,20 +23576,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C23">
-        <f>DF--.1++1.010SW1 
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010SW1 
  -A6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <f>DF--.1++1.010SW2 
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW2 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -23535,21 +23601,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C24">
-        <f>DF--.1++1.010SW2 
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW2 
  -0BG01 
  MERTEN 
- MEG3116-8029</f>
-        <v/>
+ MEG3116-8029</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
-        <f>DF--.1++1.010SW2 
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW2 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -23559,21 +23627,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C25">
-        <f>DF--.1++1.010SW2 
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW2 
  -0EA01 
  RIDI 
- PFZO-T16-R1X145/45ND</f>
-        <v/>
+ PFZO-T16-R1X145/45ND</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
-        <f>DF--.1++1.010SW2 
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW2 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -23583,21 +23653,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C26">
-        <f>DF--.1++1.035RS1 
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DF--.1++1.035RS1 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
-        <f>DF--.1++1.010TT1 
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -23607,12 +23679,13 @@
  4G2,5 mm²</t>
         </is>
       </c>
-      <c r="C27">
-        <f>DF--.1++1.050TT1 
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -23622,20 +23695,22 @@
  4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
         </is>
       </c>
-      <c r="E27">
-        <f>DF--.1++1.050TT1 
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050TT1 
  -MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
-        <f>DF--.1++1.010TT1 
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -23645,20 +23720,22 @@
  4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
         </is>
       </c>
-      <c r="C28">
-        <f>DF--.1++1.010TT1 
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010TT1 
  -MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
-        <f>DF--.1++1.010TT1 
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -23668,21 +23745,23 @@
  3x2,5 mm²</t>
         </is>
       </c>
-      <c r="C29">
-        <f>DF--.1++1.010TT1 
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  +DU1-RA1 
  SEW 
- BW100-004-00</f>
-        <v/>
+ BW100-004-00</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
-        <f>DF--.1++1.010TT1 
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -23692,12 +23771,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C30">
-        <f>DF--.1++1.010TT1 
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  -XD01B 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -23707,21 +23787,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E30">
-        <f>DF--.1++1.010FX1 
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010FX1 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
-        <f>DF--.1++1.035IR1 
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DF--.1++1.035IR1 
  +DS1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -23731,19 +23813,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C31">
-        <f>DF--.1++1.035IR1 
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +DS1-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
-        <f>DF--.1++1.035IR1 
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +GR1-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -23753,20 +23837,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C32">
-        <f>DF--.1++1.035IR1 
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DF--.1++1.035IR1 
  +GR1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
-        <f>DF--.1++1.035IR1 
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +GR2-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -23776,20 +23862,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C33">
-        <f>DF--.1++1.035IR1 
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DF--.1++1.035IR1 
  +GR2-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
-        <f>DF--.1++1.035IR1 
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -23799,11 +23887,12 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C34">
-        <f>DF--.1++1.035IR1 
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +IA003-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -23813,20 +23902,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E34">
-        <f>DF--.1++1.035IR1 
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>DF--.1++1.035IR1 
  +DS1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
-        <f>DF--.1++1.035IR1 
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +RC1-XG12.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -23836,19 +23927,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C35">
-        <f>DF--.1++1.035IR1 
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
-        <f>DF--.1++1.035IR1 
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +RC1-XG12.2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -23858,21 +23951,23 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C36">
-        <f>DF--.1++1.035IR1 
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>DF--.1++1.035IR1 
  +TS1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37">
-        <f>DF--.1++1.035RS1 
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>DF--.1++1.035RS1 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -23882,12 +23977,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C37">
-        <f>DF--.1++1.050TT1 
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050TT1 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -23897,21 +23993,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E37">
-        <f>DF--.1++1.050TT1 
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38">
-        <f>DF--.1++1.050DP1 
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050DP1 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -23921,21 +24019,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C38">
-        <f>DF--.1++1.050SW1 
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050SW1 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39">
-        <f>DF--.1++1.050FX1 
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050FX1 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -23945,21 +24045,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C39">
-        <f>DF--.1++1.050FX2 
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050FX2 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40">
-        <f>DF--.1++1.050FX2 
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050FX2 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -23969,21 +24071,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C40">
-        <f>DF--.1++1.050FX3 
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050FX3 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41">
-        <f>DF--.1++1.050FX3 
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050FX3 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -23993,20 +24097,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C41">
-        <f>DF--.1++1.050FX4 
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050FX4 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42">
-        <f>DF--.1++1.050IR1 
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +CW1-XD2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -24016,11 +24122,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C42">
-        <f>DF--.1++1.050IR1 
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA001-XD73 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -24029,11 +24136,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E42">
-        <f>DF--.1++1.050IR1 
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA003-XD93 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -24042,19 +24150,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G42">
-        <f>DF--.1++1.050IR1 
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA006-XD103 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43">
-        <f>DF--.1++1.050IR1 
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +CW1-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -24064,11 +24174,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C43">
-        <f>DF--.1++1.050IR1 
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA001-XD73.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -24077,11 +24188,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E43">
-        <f>DF--.1++1.050IR1 
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA003-XD93.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -24090,19 +24202,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G43">
-        <f>DF--.1++1.050IR1 
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA006-XD103.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44">
-        <f>DF--.1++1.050IR1 
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +CW1-XD12 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -24112,20 +24226,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C44">
-        <f>DF--.1++1.050IR1 
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050IR1 
  +TC1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45">
-        <f>DF--.1++1.050IR1 
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +CW1-XD21 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -24135,11 +24251,12 @@
  4G1,5 mm²</t>
         </is>
       </c>
-      <c r="C45">
-        <f>DF--.1++1.050IR1 
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +TD1-XD1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -24148,19 +24265,21 @@
  </t>
         </is>
       </c>
-      <c r="E45">
-        <f>DF--.1++1.050IR1 
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +TD1-MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46">
-        <f>DF--.1++1.050IR1 
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +CW1-XD31 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -24169,11 +24288,12 @@
  </t>
         </is>
       </c>
-      <c r="C46">
-        <f>DF--.1++1.050IR1 
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA001-XM7.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -24182,11 +24302,12 @@
  </t>
         </is>
       </c>
-      <c r="E46">
-        <f>DF--.1++1.050IR1 
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA003-XM7.3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -24195,19 +24316,21 @@
  </t>
         </is>
       </c>
-      <c r="G46">
-        <f>DF--.1++1.050IR1 
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA006-XM7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47">
-        <f>DF--.1++1.050IR1 
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +CW1-XD32 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -24216,11 +24339,12 @@
  </t>
         </is>
       </c>
-      <c r="C47">
-        <f>DF--.1++1.050IR1 
+      <c r="C47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA001-XD1.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -24229,11 +24353,12 @@
  </t>
         </is>
       </c>
-      <c r="E47">
-        <f>DF--.1++1.050IR1 
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA003-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -24242,19 +24367,21 @@
  </t>
         </is>
       </c>
-      <c r="G47">
-        <f>DF--.1++1.050IR1 
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +IA006-XD6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48">
-        <f>DF--.1++1.050IR1 
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +RC1-XG12.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -24264,19 +24391,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C48">
-        <f>DF--.1++1.050IR1 
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +CW1-XD11 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49">
-        <f>DF--.1++1.050IR2 
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CG1-XG3_2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -24286,20 +24415,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C49">
-        <f>DF--.1++1.050IR2 
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050IR2 
  +TS1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50">
-        <f>DF--.1++1.050IR2 
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CW1-XD2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -24309,19 +24440,21 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C50">
-        <f>DF--.1++1.050IR2 
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +IA006-XD103 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51">
-        <f>DF--.1++1.050IR2 
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CW1-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -24331,19 +24464,21 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C51">
-        <f>DF--.1++1.050IR2 
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +IA006-XD103.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52">
-        <f>DF--.1++1.050IR2 
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CW1-XD12 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -24353,19 +24488,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C52">
-        <f>DF--.1++1.050IR2 
+      <c r="C52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +TD1-TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53">
-        <f>DF--.1++1.050IR2 
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CW1-XD21 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -24375,11 +24512,12 @@
  4G1,5 mm²</t>
         </is>
       </c>
-      <c r="C53">
-        <f>DF--.1++1.050IR2 
+      <c r="C53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +TD1-XD1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -24388,19 +24526,21 @@
  4x1,5 mm²</t>
         </is>
       </c>
-      <c r="E53">
-        <f>DF--.1++1.050IR2 
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +TD1-MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54">
-        <f>DF--.1++1.050IR2 
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CW1-XD31 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -24409,19 +24549,21 @@
  </t>
         </is>
       </c>
-      <c r="C54">
-        <f>DF--.1++1.050IR2 
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +IA006-XM7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55">
-        <f>DF--.1++1.050IR2 
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CW1-XD32 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -24430,20 +24572,22 @@
  </t>
         </is>
       </c>
-      <c r="C55">
-        <f>DF--.1++1.050IR2 
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +IA006-XD6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56">
-        <f>DF--.1++1.050IR2 
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050IR2 
  +DS1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -24453,19 +24597,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C56">
-        <f>DF--.1++1.050IR2 
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +DS1-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57">
-        <f>DF--.1++1.050IR2 
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +GR1-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -24475,20 +24621,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C57">
-        <f>DF--.1++1.050IR2 
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050IR2 
  +GR1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58">
-        <f>DF--.1++1.050IR2 
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +GR2-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -24498,20 +24646,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C58">
-        <f>DF--.1++1.050IR2 
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050IR2 
  +GR2-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59">
-        <f>DF--.1++1.050IR2 
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -24521,11 +24671,12 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C59">
-        <f>DF--.1++1.050IR2 
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +IA003-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -24535,20 +24686,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="E59">
-        <f>DF--.1++1.050IR2 
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050IR2 
  +DS1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60">
-        <f>DF--.1++1.050IR2 
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +RC1-XG12.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -24558,19 +24711,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C60">
-        <f>DF--.1++1.050IR2 
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61">
-        <f>DF--.1++1.050IR2 
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +RC1-XG12.2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -24580,19 +24735,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C61">
-        <f>DF--.1++1.050IR2 
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CW1-XD11 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62">
-        <f>DF--.1++1.050IR2 
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +RC1-XG12.3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -24602,20 +24759,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C62">
-        <f>DF--.1++1.050IR2 
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CG1-XG3_1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63">
-        <f>DF--.1++1.050SW1 
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050SW1 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -24625,21 +24784,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C63">
-        <f>DF--.1++1.050SW1 
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050SW1 
  -0BG01 
  MERTEN 
- MEG3116-8029</f>
-        <v/>
+ MEG3116-8029</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <f>DF--.1++1.050SW1 
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050SW1 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -24649,21 +24810,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C64">
-        <f>DF--.1++1.050SW1 
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050SW1 
  -0EA01 
  RIDI 
- PFZO-T16-R1X145/45ND</f>
-        <v/>
+ PFZO-T16-R1X145/45ND</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65">
-        <f>DF--.1++1.050SW1 
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050SW1 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -24673,11 +24836,12 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C65">
-        <f>DF--.1++1.070SW1 
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070SW1 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -24687,19 +24851,21 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E65">
-        <f>DF--.1++1.070SW1 
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070SW1 
  -A6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <f>DF--.1++1.050SW1 
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050SW1 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -24709,21 +24875,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C66">
-        <f>DF--.1++1.050DP1 
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050DP1 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67">
-        <f>DF--.1++1.050TT1 
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -24733,21 +24901,23 @@
  3x2,5 mm²</t>
         </is>
       </c>
-      <c r="C67">
-        <f>DF--.1++1.050TT1 
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050TT1 
  +DU1-RA1 
  SEW 
- BW100-004-00</f>
-        <v/>
+ BW100-004-00</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68">
-        <f>DF--.1++1.050TT1 
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -24757,12 +24927,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C68">
-        <f>DF--.1++1.050TT1 
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050TT1 
  -XD01B 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -24772,21 +24943,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E68">
-        <f>DF--.1++1.050FX1 
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050FX1 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69">
-        <f>DF--.1++1.060DP1 
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060DP1 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -24796,21 +24969,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C69">
-        <f>DF--.1++1.060SW2 
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW2 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70">
-        <f>DF--.1++1.060FX1 
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060FX1 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -24820,21 +24995,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C70">
-        <f>DF--.1++1.060FX2 
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060FX2 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71">
-        <f>DF--.1++1.060FX2 
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060FX2 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -24844,21 +25021,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C71">
-        <f>DF--.1++1.060FX3 
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060FX3 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72">
-        <f>DF--.1++1.060FX3 
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060FX3 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -24868,20 +25047,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C72">
-        <f>DF--.1++1.060FX4 
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060FX4 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73">
-        <f>DF--.1++1.060IR1 
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -24891,11 +25072,12 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C73">
-        <f>DF--.1++1.060IR1 
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +IA003-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -24905,20 +25087,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E73">
-        <f>DF--.1++1.060IR1 
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060IR1 
  +GR1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74">
-        <f>DF--.1++1.060IR1 
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +RC1-XG12.1_TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -24928,19 +25112,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C74">
-        <f>DF--.1++1.060IR1 
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75">
-        <f>DF--.1++1.060IR1 
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +RC1-XG12.2_TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -24950,19 +25136,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C75">
-        <f>DF--.1++1.060IR1 
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +CG1-XG3_1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76">
-        <f>DF--.1++1.060IR2 
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +CW1-XD2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -24972,11 +25160,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C76">
-        <f>DF--.1++1.060IR2 
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA001-XD73 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -24985,11 +25174,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E76">
-        <f>DF--.1++1.060IR2 
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA003-XD93 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -24998,19 +25188,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G76">
-        <f>DF--.1++1.060IR2 
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA006-XD103 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77">
-        <f>DF--.1++1.060IR2 
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +CW1-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -25020,11 +25212,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C77">
-        <f>DF--.1++1.060IR2 
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA001-XD73.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -25033,11 +25226,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E77">
-        <f>DF--.1++1.060IR2 
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA003-XD93.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -25046,19 +25240,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G77">
-        <f>DF--.1++1.060IR2 
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA006-XD103.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
-        <f>DF--.1++1.060IR2 
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +CW1-XD12 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -25068,20 +25264,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C78">
-        <f>DF--.1++1.060IR2 
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060IR2 
  +TC1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79">
-        <f>DF--.1++1.060IR2 
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +CW1-XD21 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -25091,11 +25289,12 @@
  4G1,5 mm²</t>
         </is>
       </c>
-      <c r="C79">
-        <f>DF--.1++1.060IR2 
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +TD1-XD1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -25104,19 +25303,21 @@
  </t>
         </is>
       </c>
-      <c r="E79">
-        <f>DF--.1++1.060IR2 
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +TD1-MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
-        <f>DF--.1++1.060IR2 
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +CW1-XD31 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -25125,11 +25326,12 @@
  </t>
         </is>
       </c>
-      <c r="C80">
-        <f>DF--.1++1.060IR2 
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA001-XM7.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -25138,11 +25340,12 @@
  </t>
         </is>
       </c>
-      <c r="E80">
-        <f>DF--.1++1.060IR2 
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA003-XM7.3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -25151,19 +25354,21 @@
  </t>
         </is>
       </c>
-      <c r="G80">
-        <f>DF--.1++1.060IR2 
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA006-XM7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81">
-        <f>DF--.1++1.060IR2 
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +CW1-XD32 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -25172,11 +25377,12 @@
  </t>
         </is>
       </c>
-      <c r="C81">
-        <f>DF--.1++1.060IR2 
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA001-XD1.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -25185,11 +25391,12 @@
  </t>
         </is>
       </c>
-      <c r="E81">
-        <f>DF--.1++1.060IR2 
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA003-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -25198,19 +25405,21 @@
  </t>
         </is>
       </c>
-      <c r="G81">
-        <f>DF--.1++1.060IR2 
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +IA006-XD6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82">
-        <f>DF--.1++1.060IR2 
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +RC1-XG12.1_TA2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -25220,20 +25429,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C82">
-        <f>DF--.1++1.060IR2 
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +CW1-XD11 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83">
-        <f>DF--.1++1.060SW1 
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW1 
  +VI1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -25243,12 +25454,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C83">
-        <f>DF--.1++1.060SW1 
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW1 
  +VI2-KF52 
  MURRELEKTRONIK 
- MVK-MPNIO F DI16/8</f>
-        <v/>
+ MVK-MPNIO F DI16/8</t>
+        </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -25258,12 +25470,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E83">
-        <f>DF--.1++1.060TT1 
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  +VI1-KF52 
  MURRELEKTRONIK 
- MVK-MPNIO F DI16/8</f>
-        <v/>
+ MVK-MPNIO F DI16/8</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -25273,20 +25486,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="G83">
-        <f>DF--.1++1.060TT1 
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84">
-        <f>DF--.1++1.060SW1 
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060SW1 
  -A6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -25296,20 +25511,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C84">
-        <f>DF--.1++1.060SW1 
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW1 
  +VI1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85">
-        <f>DF--.1++1.060SW1 
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060SW1 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -25319,20 +25536,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C85">
-        <f>DF--.1++1.060SW1 
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060SW1 
  -A6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86">
-        <f>DF--.1++1.060SW2 
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW2 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -25342,21 +25561,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C86">
-        <f>DF--.1++1.060SW2 
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW2 
  -0BG01 
  MERTEN 
- MEG3116-8029</f>
-        <v/>
+ MEG3116-8029</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87">
-        <f>DF--.1++1.060SW2 
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW2 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -25366,21 +25587,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C87">
-        <f>DF--.1++1.060SW2 
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW2 
  -0EA01 
  RIDI 
- PFZO-T16-R1X145/45ND</f>
-        <v/>
+ PFZO-T16-R1X145/45ND</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88">
-        <f>DF--.1++1.060SW2 
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW2 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -25390,19 +25613,21 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C88">
-        <f>DF--.1++1.060SW1 
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060SW1 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89">
-        <f>DF--.1++1.060SW2 
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060SW2 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -25412,21 +25637,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C89">
-        <f>DF--.1++1.060DP1 
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060DP1 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90">
-        <f>DF--.1++1.060TT1 
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -25436,12 +25663,13 @@
  4G2,5 mm²</t>
         </is>
       </c>
-      <c r="C90">
-        <f>DF--.1++1.070TT1 
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -25451,20 +25679,22 @@
  4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
         </is>
       </c>
-      <c r="E90">
-        <f>DF--.1++1.070TT1 
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070TT1 
  -MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91">
-        <f>DF--.1++1.060TT1 
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -25474,20 +25704,22 @@
  4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
         </is>
       </c>
-      <c r="C91">
-        <f>DF--.1++1.060TT1 
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060TT1 
  -MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92">
-        <f>DF--.1++1.060TT1 
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -25497,21 +25729,23 @@
  3x2,5 mm²</t>
         </is>
       </c>
-      <c r="C92">
-        <f>DF--.1++1.060TT1 
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  +DU1-RA1 
  SEW 
- BW100-004-00</f>
-        <v/>
+ BW100-004-00</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93">
-        <f>DF--.1++1.060TT1 
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -25521,12 +25755,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C93">
-        <f>DF--.1++1.060TT1 
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  -XD01B 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -25536,21 +25771,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E93">
-        <f>DF--.1++1.060FX1 
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060FX1 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94">
-        <f>DF--.1++1.070FX1 
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070FX1 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -25560,21 +25797,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C94">
-        <f>DF--.1++1.070FX2 
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070FX2 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95">
-        <f>DF--.1++1.070FX2 
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070FX2 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -25584,21 +25823,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C95">
-        <f>DF--.1++1.070FX3 
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070FX3 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
-        <f>DF--.1++1.070FX3 
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070FX3 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -25608,20 +25849,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C96">
-        <f>DF--.1++1.070FX4 
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070FX4 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97">
-        <f>DF--.1++1.070IR1 
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +CW1-XD2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -25631,11 +25874,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C97">
-        <f>DF--.1++1.070IR1 
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA001-XD73 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -25644,11 +25888,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E97">
-        <f>DF--.1++1.070IR1 
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA003-XD93 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -25657,19 +25902,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G97">
-        <f>DF--.1++1.070IR1 
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA006-XD103 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98">
-        <f>DF--.1++1.070IR1 
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +CW1-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -25679,11 +25926,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C98">
-        <f>DF--.1++1.070IR1 
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA001-XD73.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -25692,11 +25940,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E98">
-        <f>DF--.1++1.070IR1 
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA003-XD93.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -25705,19 +25954,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G98">
-        <f>DF--.1++1.070IR1 
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA006-XD103.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99">
-        <f>DF--.1++1.070IR1 
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +CW1-XD12 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -25727,20 +25978,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C99">
-        <f>DF--.1++1.070IR1 
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070IR1 
  +TC1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100">
-        <f>DF--.1++1.070IR1 
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +CW1-XD21 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -25750,11 +26003,12 @@
  4G1,5 mm²</t>
         </is>
       </c>
-      <c r="C100">
-        <f>DF--.1++1.070IR1 
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +TD1-XD1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -25763,19 +26017,21 @@
  </t>
         </is>
       </c>
-      <c r="E100">
-        <f>DF--.1++1.070IR1 
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +TD1-MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101">
-        <f>DF--.1++1.070IR1 
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +CW1-XD31 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -25784,11 +26040,12 @@
  </t>
         </is>
       </c>
-      <c r="C101">
-        <f>DF--.1++1.070IR1 
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA001-XM7.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -25797,11 +26054,12 @@
  </t>
         </is>
       </c>
-      <c r="E101">
-        <f>DF--.1++1.070IR1 
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA003-XM7.3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -25810,19 +26068,21 @@
  </t>
         </is>
       </c>
-      <c r="G101">
-        <f>DF--.1++1.070IR1 
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA006-XM7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102">
-        <f>DF--.1++1.070IR1 
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +CW1-XD32 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -25831,11 +26091,12 @@
  </t>
         </is>
       </c>
-      <c r="C102">
-        <f>DF--.1++1.070IR1 
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA001-XD1.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -25844,11 +26105,12 @@
  </t>
         </is>
       </c>
-      <c r="E102">
-        <f>DF--.1++1.070IR1 
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA003-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -25857,19 +26119,21 @@
  </t>
         </is>
       </c>
-      <c r="G102">
-        <f>DF--.1++1.070IR1 
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +IA006-XD6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103">
-        <f>DF--.1++1.070IR1 
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +RC1-XG12.1_TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -25879,20 +26143,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C103">
-        <f>DF--.1++1.070IR1 
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +CW1-XD11 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104">
-        <f>DF--.1++1.070SW1 
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070SW1 
  +VI1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -25902,12 +26168,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C104">
-        <f>DF--.1++1.070SW1 
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070SW1 
  +VI2-KF52 
  MURRELEKTRONIK 
- MVK-MPNIO F DI16/8</f>
-        <v/>
+ MVK-MPNIO F DI16/8</t>
+        </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -25917,12 +26184,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E104">
-        <f>DF--.1++1.070TT1 
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070TT1 
  +VI1-KF52 
  MURRELEKTRONIK 
- MVK-MPNIO F DI16/8</f>
-        <v/>
+ MVK-MPNIO F DI16/8</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -25932,20 +26200,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="G104">
-        <f>DF--.1++1.070TT1 
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105">
-        <f>DF--.1++1.070SW1 
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070SW1 
  -A6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -25955,21 +26225,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C105">
-        <f>DF--.1++1.070SW1 
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070SW1 
  +VI1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106">
-        <f>DF--.1++1.070TT1 
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -25979,21 +26251,23 @@
  3x2,5 mm²</t>
         </is>
       </c>
-      <c r="C106">
-        <f>DF--.1++1.070TT1 
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070TT1 
  +DU1-RA1 
  SEW 
- BW100-004-00</f>
-        <v/>
+ BW100-004-00</t>
+        </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107">
-        <f>DF--.1++1.070TT1 
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -26003,12 +26277,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C107">
-        <f>DF--.1++1.070TT1 
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070TT1 
  -XD01B 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -26018,21 +26293,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E107">
-        <f>DF--.1++1.070FX1 
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070FX1 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108">
-        <f>DF--.1++1.080IR1 
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DF--.1++1.080IR1 
  +DS1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -26042,19 +26319,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C108">
-        <f>DF--.1++1.080IR1 
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.080IR1 
  +DS1-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109">
-        <f>DF--.1++1.080IR1 
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.080IR1 
  +GR1-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -26064,20 +26343,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C109">
-        <f>DF--.1++1.080IR1 
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>DF--.1++1.080IR1 
  +GR1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110">
-        <f>DF--.1++1.080IR1 
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.080IR1 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -26087,11 +26368,12 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C110">
-        <f>DF--.1++1.080IR1 
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.080IR1 
  +IA003-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -26101,21 +26383,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E110">
-        <f>DF--.1++1.080IR1 
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>DF--.1++1.080IR1 
  +DS1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111">
-        <f>DF--.1++1.090FX1 
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090FX1 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -26125,21 +26409,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C111">
-        <f>DF--.1++1.090FX2 
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090FX2 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112">
-        <f>DF--.1++1.090FX2 
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090FX2 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -26149,21 +26435,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C112">
-        <f>DF--.1++1.090FX3 
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090FX3 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113">
-        <f>DF--.1++1.090FX3 
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090FX3 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -26173,20 +26461,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C113">
-        <f>DF--.1++1.090FX4 
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090FX4 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114">
-        <f>DF--.1++1.090IR1 
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +CW1-XD2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -26196,11 +26486,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C114">
-        <f>DF--.1++1.090IR1 
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA001-XD73 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -26209,11 +26500,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E114">
-        <f>DF--.1++1.090IR1 
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA003-XD93 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -26222,19 +26514,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G114">
-        <f>DF--.1++1.090IR1 
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA006-XD103 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115">
-        <f>DF--.1++1.090IR1 
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +CW1-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -26244,11 +26538,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C115">
-        <f>DF--.1++1.090IR1 
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA001-XD73.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -26257,11 +26552,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E115">
-        <f>DF--.1++1.090IR1 
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA003-XD93.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -26270,19 +26566,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G115">
-        <f>DF--.1++1.090IR1 
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA006-XD103.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116">
-        <f>DF--.1++1.090IR1 
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +CW1-XD12 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -26292,20 +26590,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C116">
-        <f>DF--.1++1.090IR1 
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090IR1 
  +TC1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117">
-        <f>DF--.1++1.090IR1 
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +CW1-XD21 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -26315,11 +26615,12 @@
  4G1,5 mm²</t>
         </is>
       </c>
-      <c r="C117">
-        <f>DF--.1++1.090IR1 
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +TD1-XD1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -26328,19 +26629,21 @@
  </t>
         </is>
       </c>
-      <c r="E117">
-        <f>DF--.1++1.090IR1 
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +TD1-MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118">
-        <f>DF--.1++1.090IR1 
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +CW1-XD31 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -26349,11 +26652,12 @@
  </t>
         </is>
       </c>
-      <c r="C118">
-        <f>DF--.1++1.090IR1 
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA001-XM7.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -26362,11 +26666,12 @@
  </t>
         </is>
       </c>
-      <c r="E118">
-        <f>DF--.1++1.090IR1 
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA003-XM7.3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -26375,19 +26680,21 @@
  </t>
         </is>
       </c>
-      <c r="G118">
-        <f>DF--.1++1.090IR1 
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA006-XM7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119">
-        <f>DF--.1++1.090IR1 
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +CW1-XD32 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -26396,11 +26703,12 @@
  </t>
         </is>
       </c>
-      <c r="C119">
-        <f>DF--.1++1.090IR1 
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA001-XD1.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -26409,11 +26717,12 @@
  </t>
         </is>
       </c>
-      <c r="E119">
-        <f>DF--.1++1.090IR1 
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA003-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -26422,19 +26731,21 @@
  </t>
         </is>
       </c>
-      <c r="G119">
-        <f>DF--.1++1.090IR1 
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +IA006-XD6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120">
-        <f>DF--.1++1.090IR1 
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +RC1-XG12.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -26444,19 +26755,21 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C120">
-        <f>DF--.1++1.090IR1 
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +CW1-XD11 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121">
-        <f>DF--.1++1.090IR2 
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +CW1-XD2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -26466,11 +26779,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C121">
-        <f>DF--.1++1.090IR2 
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA001-XD73 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -26479,11 +26793,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E121">
-        <f>DF--.1++1.090IR2 
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA003-XD93 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -26492,19 +26807,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G121">
-        <f>DF--.1++1.090IR2 
+      <c r="G121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA006-XD103 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122">
-        <f>DF--.1++1.090IR2 
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +CW1-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -26514,11 +26831,12 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C122">
-        <f>DF--.1++1.090IR2 
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA001-XD73.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -26527,11 +26845,12 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="E122">
-        <f>DF--.1++1.090IR2 
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA003-XD93.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -26540,19 +26859,21 @@
  3G50 mm²</t>
         </is>
       </c>
-      <c r="G122">
-        <f>DF--.1++1.090IR2 
+      <c r="G122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA006-XD103.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123">
-        <f>DF--.1++1.090IR2 
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +CW1-XD12 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -26562,20 +26883,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C123">
-        <f>DF--.1++1.090IR2 
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090IR2 
  +TC1-KF51 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DO8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DO8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124">
-        <f>DF--.1++1.090IR2 
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +CW1-XD21 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -26585,11 +26908,12 @@
  4G1,5 mm²</t>
         </is>
       </c>
-      <c r="C124">
-        <f>DF--.1++1.090IR2 
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +TD1-XD1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -26598,19 +26922,21 @@
  </t>
         </is>
       </c>
-      <c r="E124">
-        <f>DF--.1++1.090IR2 
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +TD1-MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125">
-        <f>DF--.1++1.090IR2 
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +CW1-XD31 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -26619,11 +26945,12 @@
  </t>
         </is>
       </c>
-      <c r="C125">
-        <f>DF--.1++1.090IR2 
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA001-XM7.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -26632,11 +26959,12 @@
  </t>
         </is>
       </c>
-      <c r="E125">
-        <f>DF--.1++1.090IR2 
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA003-XM7.3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -26645,19 +26973,21 @@
  </t>
         </is>
       </c>
-      <c r="G125">
-        <f>DF--.1++1.090IR2 
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA006-XM7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126">
-        <f>DF--.1++1.090IR2 
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +CW1-XD32 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -26666,11 +26996,12 @@
  </t>
         </is>
       </c>
-      <c r="C126">
-        <f>DF--.1++1.090IR2 
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA001-XD1.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -26679,11 +27010,12 @@
  </t>
         </is>
       </c>
-      <c r="E126">
-        <f>DF--.1++1.090IR2 
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA003-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -26692,19 +27024,21 @@
  </t>
         </is>
       </c>
-      <c r="G126">
-        <f>DF--.1++1.090IR2 
+      <c r="G126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +IA006-XD6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127">
-        <f>DF--.1++1.090IR2 
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +RC1-XG12.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -26714,20 +27048,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C127">
-        <f>DF--.1++1.090IR2 
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +CW1-XD11 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128">
-        <f>DF--.1++1.090TT1 
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -26737,20 +27073,22 @@
  4x2,5mm² + 3x1mm² + 2x0,75mm²</t>
         </is>
       </c>
-      <c r="C128">
-        <f>DF--.1++1.090TT1 
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090TT1 
  -MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129">
-        <f>DF--.1++1.090TT1 
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -26760,21 +27098,23 @@
  3x2,5 mm²</t>
         </is>
       </c>
-      <c r="C129">
-        <f>DF--.1++1.090TT1 
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  +DU1-RA1 
  SEW 
- BW100-004-00</f>
-        <v/>
+ BW100-004-00</t>
+        </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130">
-        <f>DF--.1++1.090TT1 
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -26784,21 +27124,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C130">
-        <f>DF--.1++1.090TT1 
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131">
-        <f>DF--.1++1.090TT1 
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -26808,12 +27150,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C131">
-        <f>DF--.1++1.090TT1 
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  -XD01B 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -26823,20 +27166,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E131">
-        <f>DF--.1++1.090FX1 
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090FX1 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132">
-        <f>DF--.1++1.100IR1 
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +CW1-XD2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -26846,19 +27191,21 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C132">
-        <f>DF--.1++1.100IR1 
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +IA006-XD103 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133">
-        <f>DF--.1++1.100IR1 
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +CW1-XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -26868,19 +27215,21 @@
  3G50 mm</t>
         </is>
       </c>
-      <c r="C133">
-        <f>DF--.1++1.100IR1 
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +IA006-XD103.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134">
-        <f>DF--.1++1.100IR1 
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +CW1-XD21 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -26890,11 +27239,12 @@
  4G1,5 mm²</t>
         </is>
       </c>
-      <c r="C134">
-        <f>DF--.1++1.100IR1 
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +TD1-XD1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -26903,19 +27253,21 @@
  4x1,5 mm²</t>
         </is>
       </c>
-      <c r="E134">
-        <f>DF--.1++1.100IR1 
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +TD1-MA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135">
-        <f>DF--.1++1.100IR1 
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +CW1-XD31 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -26924,19 +27276,21 @@
  </t>
         </is>
       </c>
-      <c r="C135">
-        <f>DF--.1++1.100IR1 
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +IA006-XM7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136">
-        <f>DF--.1++1.100IR1 
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +CW1-XD32 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -26945,19 +27299,21 @@
  </t>
         </is>
       </c>
-      <c r="C136">
-        <f>DF--.1++1.100IR1 
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +IA006-XD6 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137">
-        <f>DF--.1++1.100IR1 
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +GR1-X01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -26967,20 +27323,22 @@
  5G1,5 mm²</t>
         </is>
       </c>
-      <c r="C137">
-        <f>DF--.1++1.100IR1 
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>DF--.1++1.100IR1 
  +GR1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138">
-        <f>DF--.1++1.100IR1 
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +IA001-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -26990,11 +27348,12 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C138">
-        <f>DF--.1++1.100IR1 
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +IA003-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -27004,21 +27363,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E138">
-        <f>DF--.1++1.100IR1 
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>DF--.1++1.100IR1 
  +DS1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139">
-        <f>DF--.1++2.110DP1 
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>DF--.1++2.110DP1 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -27028,12 +27389,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C139">
-        <f>DF--.1++2.110DP2 
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>DF--.1++2.110DP2 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -27043,21 +27405,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E139">
-        <f>DF--.1++2.110SW2 
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>DF--.1++2.110SW2 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140">
-        <f>DF--.1++2.110SW1 
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>DF--.1++2.110SW1 
  +VI1-KF41.3 
  FESTO 
- CPX-M-16DE-D</f>
-        <v/>
+ CPX-M-16DE-D</t>
+        </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -27067,21 +27431,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C140">
-        <f>DF--.1++2.110DP1 
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>DF--.1++2.110DP1 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141">
-        <f>DF--.1++CC1 
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD310 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -27091,20 +27457,22 @@
  3G2,5 mm²</t>
         </is>
       </c>
-      <c r="C141">
-        <f>DF--.1++OP1 
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++OP1 
  -XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142">
-        <f>DF--.1++CC1 
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD310 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -27114,20 +27482,22 @@
  3G2,5 mm²</t>
         </is>
       </c>
-      <c r="C142">
-        <f>DF--.1++OP3 
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++OP3 
  -XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143">
-        <f>DF--.1++CC1 
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -27137,20 +27507,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C143">
-        <f>DF--.1++1.010IR1 
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +RC1-XG11.1_TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144">
-        <f>DF--.1++CC1 
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -27160,20 +27532,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C144">
-        <f>DF--.1++1.010IR2 
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +RC1-XG11.1_TA2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145">
-        <f>DF--.1++CC1 
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -27183,20 +27557,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C145">
-        <f>DF--.1++1.035IR1 
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +RC1-XG11.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146">
-        <f>DF--.1++CC1 
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -27206,20 +27582,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C146">
-        <f>DF--.1++1.050IR1 
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +RC1-XG11.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147">
-        <f>DF--.1++CC1 
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -27229,20 +27607,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C147">
-        <f>DF--.1++1.050IR2 
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +RC1-XG11.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148">
-        <f>DF--.1++CC1 
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -27252,20 +27632,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C148">
-        <f>DF--.1++1.060IR1 
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +RC1-XG11.1_TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149">
-        <f>DF--.1++CC1 
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -27275,20 +27657,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C149">
-        <f>DF--.1++1.060IR2 
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR2 
  +RC1-XG11.1_TA2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150">
-        <f>DF--.1++CC1 
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -27298,20 +27682,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C150">
-        <f>DF--.1++1.070IR1 
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +RC1-XG11.1_TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151">
-        <f>DF--.1++CC1 
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -27321,20 +27707,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C151">
-        <f>DF--.1++1.080IR1 
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.080IR1 
  +RC1-XG11.1_TA2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152">
-        <f>DF--.1++CC1 
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -27344,20 +27732,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C152">
-        <f>DF--.1++1.090IR1 
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +RC1-XG11.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153">
-        <f>DF--.1++CC1 
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -27367,20 +27757,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C153">
-        <f>DF--.1++1.090IR2 
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +RC1-XG11.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154">
-        <f>DF--.1++CC1 
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD311 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -27390,20 +27782,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C154">
-        <f>DF--.1++1.100IR1 
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +RC1-XG11.1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155">
-        <f>DF--.1++CC1 
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD320 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -27413,21 +27807,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C155">
-        <f>DF--.1++1.000SD1 
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DF--.1++1.000SD1 
  -FQ01 
  EUCHNER 
- MGB-L2HEB-PNC-L</f>
-        <v/>
+ MGB-L2HEB-PNC-L</t>
+        </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156">
-        <f>DF--.1++CC1 
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD320 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -27437,20 +27833,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C156">
-        <f>DF--.1++1.010SW1 
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010SW1 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157">
-        <f>DF--.1++CC1 
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD320 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -27460,21 +27858,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C157">
-        <f>DF--.1++1.010TT1 
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158">
-        <f>DF--.1++CC1 
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD320 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -27484,12 +27884,13 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C158">
-        <f>DF--.1++MS1 
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>DF--.1++MS1 
  +VI1-KF55 
  MURRELEKTRONIK 
- MVK-MPNIO DI6 DO6 IOL IRT</f>
-        <v/>
+ MVK-MPNIO DI6 DO6 IOL IRT</t>
+        </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -27499,21 +27900,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E158">
-        <f>DF--.1++1 
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>DF--.1++1 
  +VI1-KF56 
  MURRELEKTRONIK 
- MVK+ MPNIO DIO8 DIO8 Push Pull</f>
-        <v/>
+ MVK+ MPNIO DIO8 DIO8 Push Pull</t>
+        </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159">
-        <f>DF--.1++CC1 
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD321 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -27523,11 +27926,12 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C159">
-        <f>DF--.1++1.010SW2 
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010SW2 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -27537,21 +27941,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="E159">
-        <f>DF--.1++1.010DP1 
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010DP1 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160">
-        <f>DF--.1++CC1 
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD321 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -27561,20 +27967,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C160">
-        <f>DF--.1++1.050SW1 
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050SW1 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161">
-        <f>DF--.1++CC1 
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD321 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -27584,21 +27992,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C161">
-        <f>DF--.1++1.050TT1 
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162">
-        <f>DF--.1++CC1 
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD322 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -27608,20 +28018,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C162">
-        <f>DF--.1++1.060SW2 
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060SW2 
  -BG01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163">
-        <f>DF--.1++CC1 
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD322 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -27631,21 +28043,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C163">
-        <f>DF--.1++1.060TT1 
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164">
-        <f>DF--.1++CC1 
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD322 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -27655,21 +28069,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C164">
-        <f>DF--.1++1.090TT1 
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  +VI1-KF53 
  MURRELEKTRONIK 
- MVK+ MPNIO DI8 DI8 IRT</f>
-        <v/>
+ MVK+ MPNIO DI8 DI8 IRT</t>
+        </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165">
-        <f>DF--.1++CC1 
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD322 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -27679,21 +28095,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C165">
-        <f>DF--.1++1.090TT1 
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166">
-        <f>DF--.1++CC1 
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD323 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -27703,21 +28121,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C166">
-        <f>DF--.1++2.110SW1 
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DF--.1++2.110SW1 
  +VI1-KF41.0 
  FESTO 
- CPX-M-FB44</f>
-        <v/>
+ CPX-M-FB44</t>
+        </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167">
-        <f>DF--.1++CP1 
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0EA01 
  RITTAL 
- SZ.2500110</f>
-        <v/>
+ SZ.2500110</t>
+        </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -27727,21 +28147,23 @@
  2x1,5 mm²</t>
         </is>
       </c>
-      <c r="C167">
-        <f>DF--.1++CC1 
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -0EA01 
  RITTAL 
- SZ.2500110</f>
-        <v/>
+ SZ.2500110</t>
+        </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168">
-        <f>DF--.1++CP1 
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -27751,21 +28173,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C168">
-        <f>DF--.1++1.010SW1 
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW1 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169">
-        <f>DF--.1++CP1 
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -27775,21 +28199,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C169">
-        <f>DF--.1++1.010SW2 
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010SW2 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170">
-        <f>DF--.1++CP1 
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -27799,21 +28225,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C170">
-        <f>DF--.1++1.050SW1 
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>DF--.1++1.050SW1 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171">
-        <f>DF--.1++CP1 
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -27823,21 +28251,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C171">
-        <f>DF--.1++1.060SW1 
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW1 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172">
-        <f>DF--.1++CP1 
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -27847,21 +28277,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C172">
-        <f>DF--.1++1.060SW2 
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060SW2 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173">
-        <f>DF--.1++CP1 
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -27871,21 +28303,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C173">
-        <f>DF--.1++1.070SW1 
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070SW1 
  +JB9-0XD01 
  WAGO 
- 221-415</f>
-        <v/>
+ 221-415</t>
+        </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174">
-        <f>DF--.1++CP1 
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -27895,21 +28329,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C174">
-        <f>DF--.1++CC1 
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175">
-        <f>DF--.1++CP1 
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -27919,21 +28355,23 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C175">
-        <f>DF--.1++CC1 
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176">
-        <f>DF--.1++CP1 
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -0XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -27943,20 +28381,22 @@
  3G1,5 mm²</t>
         </is>
       </c>
-      <c r="C176">
-        <f>DF--.1 
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1 
  -0XD23 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177">
-        <f>DF--.1++CP1 
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC1 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -27966,21 +28406,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C177">
-        <f>DF--.1++CC1 
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD01 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178">
-        <f>DF--.1++CP1 
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC2 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -27990,20 +28432,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C178">
-        <f>DF--.1++1.010SW1 
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010SW1 
  -A7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179">
-        <f>DF--.1++CP1 
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC3 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -28013,21 +28457,23 @@
  4G2,5 mm²</t>
         </is>
       </c>
-      <c r="C179">
-        <f>DF--.1++1.010TT1 
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180">
-        <f>DF--.1++CP1 
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC4 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -28037,20 +28483,22 @@
  4G4 mm²</t>
         </is>
       </c>
-      <c r="C180">
-        <f>DF--.1++1.010IR1 
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +RC1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181">
-        <f>DF--.1++CP1 
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC5 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -28060,20 +28508,22 @@
  4G4 mm²</t>
         </is>
       </c>
-      <c r="C181">
-        <f>DF--.1++1.035IR1 
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.035IR1 
  +RC1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182">
-        <f>DF--.1++CP1 
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC6 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -28083,20 +28533,22 @@
  4G4 mm²</t>
         </is>
       </c>
-      <c r="C182">
-        <f>DF--.1++1.050IR1 
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR1 
  +RC1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183">
-        <f>DF--.1++CP1 
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC7 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -28106,20 +28558,22 @@
  4G4 mm²</t>
         </is>
       </c>
-      <c r="C183">
-        <f>DF--.1++1.050IR2 
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +RC1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184">
-        <f>DF--.1++CP1 
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC8 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -28129,20 +28583,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C184">
-        <f>DF--.1++1.060SW1 
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060SW1 
  -A7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185">
-        <f>DF--.1++CP1 
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC9 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -28152,21 +28608,23 @@
  4G2,5 mm²</t>
         </is>
       </c>
-      <c r="C185">
-        <f>DF--.1++1.060TT1 
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>DF--.1++1.060TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186">
-        <f>DF--.1++CP1 
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC10 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -28176,20 +28634,22 @@
  4G4 mm²</t>
         </is>
       </c>
-      <c r="C186">
-        <f>DF--.1++1.060IR1 
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +RC1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187">
-        <f>DF--.1++CP1 
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC11 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -28199,20 +28659,22 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C187">
-        <f>DF--.1++1.070SW1 
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070SW1 
  -A7 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188">
-        <f>DF--.1++CP1 
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC12 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -28222,20 +28684,22 @@
  4G4 mm²</t>
         </is>
       </c>
-      <c r="C188">
-        <f>DF--.1++1.070IR1 
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.070IR1 
  +RC1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189">
-        <f>DF--.1++CP1 
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC13 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -28245,21 +28709,23 @@
  4G2,5 mm²</t>
         </is>
       </c>
-      <c r="C189">
-        <f>DF--.1++1.090TT1 
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>DF--.1++1.090TT1 
  +DU1-TA01 
  SEW 
- PHC21A-A040M1-E21A-00/S11</f>
-        <v/>
+ PHC21A-A040M1-E21A-00/S11</t>
+        </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190">
-        <f>DF--.1++CP1 
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC14 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -28269,20 +28735,22 @@
  4G4 mm²</t>
         </is>
       </c>
-      <c r="C190">
-        <f>DF--.1++1.090IR1 
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR1 
  +RC1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191">
-        <f>DF--.1++CP1 
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC15 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -28292,20 +28760,22 @@
  4G4 mm²</t>
         </is>
       </c>
-      <c r="C191">
-        <f>DF--.1++1.090IR2 
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.090IR2 
  +RC1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192">
-        <f>DF--.1++CP1 
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC16 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -28315,20 +28785,22 @@
  4G4 mm²</t>
         </is>
       </c>
-      <c r="C192">
-        <f>DF--.1++1.100IR1 
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +RC1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193">
-        <f>DF--.1++CP1 
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC20 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -28338,20 +28810,22 @@
  5G4 mm²</t>
         </is>
       </c>
-      <c r="C193">
-        <f>DF--.1++1.010IR1 
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +CG1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194">
-        <f>DF--.1++CP1 
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC21 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -28361,20 +28835,22 @@
  5G4 mm²</t>
         </is>
       </c>
-      <c r="C194">
-        <f>DF--.1++1.050IR2 
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CG1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195">
-        <f>DF--.1++CP1 
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC22 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -28384,20 +28860,22 @@
  4G2,5 mm²</t>
         </is>
       </c>
-      <c r="C195">
-        <f>DF--.1++1.050IR2 
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +TD1-TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196">
-        <f>DF--.1++CP1 
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC23 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -28407,20 +28885,22 @@
  5G4 mm²</t>
         </is>
       </c>
-      <c r="C196">
-        <f>DF--.1++1.060IR1 
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +CG1-XD0 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197">
-        <f>DF--.1++CP1 
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC24 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -28430,19 +28910,21 @@
  4G2,5 mm²</t>
         </is>
       </c>
-      <c r="C197">
-        <f>DF--.1++1.100IR1 
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.100IR1 
  +TD1-TA1 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198">
-        <f>DF--.1++1.010FX1 
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010FX1 
  +VI1-XG41.46 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -28452,20 +28934,22 @@
  4x0,34 mm²</t>
         </is>
       </c>
-      <c r="C198">
-        <f>DF--.1++1.010FX1 
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>DF--.1++1.010FX1 
  +VI1-BG12.3 
  TURCK 
- BI8U-MT18-AP6X-H1141</f>
-        <v/>
+ BI8U-MT18-AP6X-H1141</t>
+        </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199">
-        <f>DF--.1++1.010IR2 
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA001-XF01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -28475,20 +28959,22 @@
  4x0,22 AWG</t>
         </is>
       </c>
-      <c r="C199">
-        <f>DF--.1++1.010IR2 
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR2 
  +IA003-XF01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200">
-        <f>DF--.1++CC1 
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -KF20 
  Siemens 
- 6GK5224-0BA00-2AC2</f>
-        <v/>
+ 6GK5224-0BA00-2AC2</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -28498,20 +28984,22 @@
  4x2x22 AWG</t>
         </is>
       </c>
-      <c r="C200">
-        <f>DF--.1++2.180IR1 
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++2.180IR1 
  +CA1-A2 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201">
-        <f>DF--.1++CC1 
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD310 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -28521,20 +29009,22 @@
  3G2,5 mm²</t>
         </is>
       </c>
-      <c r="C201">
-        <f>DF--.1++OP2 
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++OP2 
  -XD3 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202">
-        <f>DF--.1++CC1 
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>DF--.1++CC1 
  -XD321 
  PHOENIX 
- STS 4-TWIN/L</f>
-        <v/>
+ STS 4-TWIN/L</t>
+        </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -28544,21 +29034,23 @@
  5G2,5 mm²</t>
         </is>
       </c>
-      <c r="C202">
-        <f>DF--.1++1.070TT1 
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DF--.1++1.070TT1 
  -XD01A 
  WEIDMÜLLER 
- IE-CD-V14MRJ/VAPM24V-C</f>
-        <v/>
+ IE-CD-V14MRJ/VAPM24V-C</t>
+        </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203">
-        <f>DF--.1++CP1 
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC19 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -28568,20 +29060,22 @@
  3G2,5 mm²</t>
         </is>
       </c>
-      <c r="C203">
-        <f>DF--.1++1.010IR1 
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.010IR1 
  +CG3-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204">
-        <f>DF--.1++CP1 
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC19 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -28591,20 +29085,22 @@
  3G2,5 mm²</t>
         </is>
       </c>
-      <c r="C204">
-        <f>DF--.1++1.050IR2 
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.050IR2 
  +CG3-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205">
-        <f>DF--.1++CP1 
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>DF--.1++CP1 
  -FC19 
  RITTAL 
- SV.3418040</f>
-        <v/>
+ SV.3418040</t>
+        </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -28614,11 +29110,12 @@
  3G2,5 mm²</t>
         </is>
       </c>
-      <c r="C205">
-        <f>DF--.1++1.060IR1 
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DF--.1++1.060IR1 
  +CG3-XD01 
- </f>
-        <v/>
+ </t>
+        </is>
       </c>
     </row>
   </sheetData>
